--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -438,28 +438,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.930902316376444</v>
+        <v>47.81765118956692</v>
       </c>
       <c r="C2">
-        <v>2.930902316376444</v>
+        <v>47.81765118956692</v>
       </c>
       <c r="D2">
-        <v>18.2974612682486</v>
+        <v>16.15673103666422</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.930902316376444</v>
+        <v>47.81765118956692</v>
       </c>
       <c r="G2">
-        <v>21.22836358462504</v>
+        <v>63.97438222623114</v>
       </c>
       <c r="H2">
-        <v>18.2974612682486</v>
+        <v>16.15673103666422</v>
       </c>
       <c r="I2">
-        <v>2.930902316376444</v>
+        <v>47.81765118956692</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.02740930511441</v>
+        <v>51.99298757568051</v>
       </c>
       <c r="C3">
-        <v>21.95831162149085</v>
+        <v>99.81063876524743</v>
       </c>
       <c r="D3">
-        <v>1.520649389853945</v>
+        <v>21.34564883729487</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.95831162149085</v>
+        <v>99.81063876524743</v>
       </c>
       <c r="G3">
-        <v>23.4789610113448</v>
+        <v>121.1562876025423</v>
       </c>
       <c r="H3">
-        <v>1.520649389853943</v>
+        <v>21.34564883729487</v>
       </c>
       <c r="I3">
-        <v>0.7299480368658102</v>
+        <v>35.83625653901629</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.76754237968406</v>
+        <v>41.22051078081252</v>
       </c>
       <c r="C4">
-        <v>36.72585400117491</v>
+        <v>141.03114954606</v>
       </c>
       <c r="D4">
-        <v>1.848630649448565</v>
+        <v>5.990219674579168</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.72585400117491</v>
+        <v>141.03114954606</v>
       </c>
       <c r="G4">
-        <v>38.57448465062348</v>
+        <v>147.0213692206391</v>
       </c>
       <c r="H4">
-        <v>1.848630649448566</v>
+        <v>5.99021967457918</v>
       </c>
       <c r="I4">
-        <v>13.24689298983011</v>
+        <v>19.87486194351766</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>6.514338283263009</v>
+        <v>36.04518907589566</v>
       </c>
       <c r="C5">
-        <v>43.24019228443792</v>
+        <v>177.0763386219556</v>
       </c>
       <c r="D5">
-        <v>37.6252733004212</v>
+        <v>0.1641362832697025</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>43.24019228443792</v>
+        <v>177.0763386219556</v>
       </c>
       <c r="G5">
-        <v>80.86546558485912</v>
+        <v>177.2404749052253</v>
       </c>
       <c r="H5">
-        <v>37.62527330042121</v>
+        <v>0.1641362832696984</v>
       </c>
       <c r="I5">
-        <v>4.665707633814442</v>
+        <v>30.0549694013165</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>36.34386587761757</v>
+        <v>3.579761276531324</v>
       </c>
       <c r="C6">
-        <v>79.5840581620555</v>
+        <v>180.656099898487</v>
       </c>
       <c r="D6">
-        <v>27.41391041992286</v>
+        <v>7.281851887840972</v>
       </c>
       <c r="E6">
-        <v>1.281407422803625</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>80.86546558485912</v>
+        <v>180.656099898487</v>
       </c>
       <c r="G6">
-        <v>108.279376004782</v>
+        <v>187.9379517863279</v>
       </c>
       <c r="H6">
-        <v>28.69531784272648</v>
+        <v>7.281851887840958</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.415624993261616</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>64.97207445708545</v>
+        <v>25.42227296451428</v>
       </c>
       <c r="C7">
-        <v>144.556132619141</v>
+        <v>206.0783728630012</v>
       </c>
       <c r="D7">
-        <v>4.395764261461197</v>
+        <v>14.05914315591595</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>144.556132619141</v>
+        <v>206.0783728630012</v>
       </c>
       <c r="G7">
-        <v>148.9518968806022</v>
+        <v>220.1375160189172</v>
       </c>
       <c r="H7">
-        <v>4.39576426146121</v>
+        <v>14.05914315591596</v>
       </c>
       <c r="I7">
-        <v>36.27675661435897</v>
+        <v>18.14042107667331</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.139791679770452</v>
+        <v>6.713480060711857</v>
       </c>
       <c r="C8">
-        <v>152.6959242989114</v>
+        <v>212.7918529237131</v>
       </c>
       <c r="D8">
-        <v>1.428143556574553</v>
+        <v>2.846960629279323</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>7.345663095204117</v>
       </c>
       <c r="F8">
-        <v>152.6959242989114</v>
+        <v>220.1375160189172</v>
       </c>
       <c r="G8">
-        <v>154.1240678554859</v>
+        <v>222.9844766481965</v>
       </c>
       <c r="H8">
-        <v>1.428143556574554</v>
+        <v>10.19262372448344</v>
       </c>
       <c r="I8">
-        <v>3.74402741830923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>38.49281131307023</v>
+        <v>37.79837242533789</v>
       </c>
       <c r="C9">
-        <v>191.1887356119816</v>
+        <v>250.590225349051</v>
       </c>
       <c r="D9">
-        <v>10.39148360580604</v>
+        <v>15.78868392419978</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>191.1887356119816</v>
+        <v>250.590225349051</v>
       </c>
       <c r="G9">
-        <v>201.5802192177877</v>
+        <v>266.3789092732508</v>
       </c>
       <c r="H9">
-        <v>10.39148360580603</v>
+        <v>15.7886839241998</v>
       </c>
       <c r="I9">
-        <v>37.06466775649568</v>
+        <v>27.60574870085446</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.927368972589411</v>
+        <v>7.703599442574656</v>
       </c>
       <c r="C10">
-        <v>198.116104584571</v>
+        <v>258.2938247916256</v>
       </c>
       <c r="D10">
-        <v>12.72229863386303</v>
+        <v>9.027665553776218</v>
       </c>
       <c r="E10">
-        <v>3.46411463321661</v>
+        <v>8.085084481625131</v>
       </c>
       <c r="F10">
-        <v>201.5802192177877</v>
+        <v>266.3789092732508</v>
       </c>
       <c r="G10">
-        <v>214.3025178516507</v>
+        <v>275.406574827027</v>
       </c>
       <c r="H10">
-        <v>16.18641326707964</v>
+        <v>17.11275003540135</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -699,28 +699,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>41.87269655454415</v>
+        <v>1.394741742050151</v>
       </c>
       <c r="C11">
-        <v>239.9888011391152</v>
+        <v>259.6885665336758</v>
       </c>
       <c r="D11">
-        <v>65.24121483228936</v>
+        <v>6.2474352191114</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>15.7180082933512</v>
       </c>
       <c r="F11">
-        <v>239.9888011391152</v>
+        <v>275.406574827027</v>
       </c>
       <c r="G11">
-        <v>305.2300159714046</v>
+        <v>281.6540100461384</v>
       </c>
       <c r="H11">
-        <v>65.24121483228936</v>
+        <v>21.96544351246263</v>
       </c>
       <c r="I11">
-        <v>25.68628328746451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14.08252219181761</v>
+        <v>0.4373300490576936</v>
       </c>
       <c r="C12">
-        <v>254.0713233309328</v>
+        <v>260.1258965827335</v>
       </c>
       <c r="D12">
-        <v>2.194504115822366</v>
+        <v>12.29167699500238</v>
       </c>
       <c r="E12">
-        <v>51.15869264047174</v>
+        <v>21.52811346340491</v>
       </c>
       <c r="F12">
-        <v>305.2300159714046</v>
+        <v>281.6540100461384</v>
       </c>
       <c r="G12">
-        <v>307.4245200872269</v>
+        <v>293.9456870411408</v>
       </c>
       <c r="H12">
-        <v>53.35319675629412</v>
+        <v>33.81979045840728</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -757,25 +757,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15.4289937120067</v>
+        <v>7.421650293847315</v>
       </c>
       <c r="C13">
-        <v>269.5003170429395</v>
+        <v>267.5475468765808</v>
       </c>
       <c r="D13">
-        <v>41.01552415872152</v>
+        <v>1.111206404826179</v>
       </c>
       <c r="E13">
-        <v>37.92420304428742</v>
+        <v>26.39814016455995</v>
       </c>
       <c r="F13">
-        <v>307.4245200872269</v>
+        <v>293.9456870411408</v>
       </c>
       <c r="G13">
-        <v>348.4400442459485</v>
+        <v>295.056893445967</v>
       </c>
       <c r="H13">
-        <v>78.93972720300894</v>
+        <v>27.50934656938614</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.448823088675948</v>
+        <v>20.48390947547354</v>
       </c>
       <c r="C14">
-        <v>273.9491401316155</v>
+        <v>288.0314563520544</v>
       </c>
       <c r="D14">
-        <v>7.198017749275744</v>
+        <v>14.63108421699125</v>
       </c>
       <c r="E14">
-        <v>74.49090411433298</v>
+        <v>7.025437093912615</v>
       </c>
       <c r="F14">
-        <v>348.4400442459485</v>
+        <v>295.056893445967</v>
       </c>
       <c r="G14">
-        <v>355.6380619952242</v>
+        <v>309.6879776629582</v>
       </c>
       <c r="H14">
-        <v>81.6889218636087</v>
+        <v>21.65652131090388</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -815,25 +815,25 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>5.176924340708025</v>
+        <v>5.270860611921403</v>
       </c>
       <c r="C15">
-        <v>279.1260644723235</v>
+        <v>293.3023169639758</v>
       </c>
       <c r="D15">
-        <v>72.84297295972742</v>
+        <v>0.07780912569667928</v>
       </c>
       <c r="E15">
-        <v>76.51199752290069</v>
+        <v>16.38566069898246</v>
       </c>
       <c r="F15">
-        <v>355.6380619952242</v>
+        <v>309.6879776629582</v>
       </c>
       <c r="G15">
-        <v>428.4810349549516</v>
+        <v>309.7657867886549</v>
       </c>
       <c r="H15">
-        <v>149.3549704826281</v>
+        <v>16.46346982467912</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>18.87584955844891</v>
+        <v>6.139250727800674</v>
       </c>
       <c r="C16">
-        <v>298.0019140307724</v>
+        <v>299.4415676917765</v>
       </c>
       <c r="D16">
-        <v>16.72862467651653</v>
+        <v>56.9990162747159</v>
       </c>
       <c r="E16">
-        <v>130.4791209241792</v>
+        <v>10.32421909687844</v>
       </c>
       <c r="F16">
-        <v>428.4810349549516</v>
+        <v>309.7657867886549</v>
       </c>
       <c r="G16">
-        <v>445.2096596314681</v>
+        <v>366.7648030633708</v>
       </c>
       <c r="H16">
-        <v>147.2077456006957</v>
+        <v>67.32323537159431</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -873,25 +873,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>8.576136597389642</v>
+        <v>1.658129713933216</v>
       </c>
       <c r="C17">
-        <v>306.578050628162</v>
+        <v>301.0996974057097</v>
       </c>
       <c r="D17">
-        <v>28.75275246165373</v>
+        <v>4.798325123398095</v>
       </c>
       <c r="E17">
-        <v>138.6316090033061</v>
+        <v>65.66510565766112</v>
       </c>
       <c r="F17">
-        <v>445.2096596314681</v>
+        <v>366.7648030633708</v>
       </c>
       <c r="G17">
-        <v>473.9624120931219</v>
+        <v>371.5631281867689</v>
       </c>
       <c r="H17">
-        <v>167.3843614649599</v>
+        <v>70.46343078105923</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -902,25 +902,25 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8.871388223066655</v>
+        <v>19.84385207575055</v>
       </c>
       <c r="C18">
-        <v>315.4494388512287</v>
+        <v>320.9435494814602</v>
       </c>
       <c r="D18">
-        <v>3.152723092979685</v>
+        <v>0.8780185464307213</v>
       </c>
       <c r="E18">
-        <v>158.5129732418932</v>
+        <v>50.6195787053087</v>
       </c>
       <c r="F18">
-        <v>473.9624120931219</v>
+        <v>371.5631281867689</v>
       </c>
       <c r="G18">
-        <v>477.1151351861016</v>
+        <v>372.4411467331996</v>
       </c>
       <c r="H18">
-        <v>161.6656963348728</v>
+        <v>51.49759725173942</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -931,25 +931,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.7751844488696245</v>
+        <v>2.095528626983901</v>
       </c>
       <c r="C19">
-        <v>316.2246233000984</v>
+        <v>323.0390781084441</v>
       </c>
       <c r="D19">
-        <v>0.7889709327983722</v>
+        <v>30.25529190681356</v>
       </c>
       <c r="E19">
-        <v>160.8905118860032</v>
+        <v>49.40206862475554</v>
       </c>
       <c r="F19">
-        <v>477.1151351861016</v>
+        <v>372.4411467331996</v>
       </c>
       <c r="G19">
-        <v>477.9041061188999</v>
+        <v>402.6964386400132</v>
       </c>
       <c r="H19">
-        <v>161.6794828188015</v>
+        <v>79.65736053156911</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -960,25 +960,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4.423231866298286</v>
+        <v>11.49419219570374</v>
       </c>
       <c r="C20">
-        <v>320.6478551663967</v>
+        <v>334.5332703041478</v>
       </c>
       <c r="D20">
-        <v>21.15883752616242</v>
+        <v>20.22670171959139</v>
       </c>
       <c r="E20">
-        <v>157.2562509525033</v>
+        <v>68.16316833586535</v>
       </c>
       <c r="F20">
-        <v>477.9041061188999</v>
+        <v>402.6964386400132</v>
       </c>
       <c r="G20">
-        <v>499.0629436450623</v>
+        <v>422.9231403596046</v>
       </c>
       <c r="H20">
-        <v>178.4150884786657</v>
+        <v>88.38987005545675</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -989,25 +989,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>17.56052486397731</v>
+        <v>30.54706620909591</v>
       </c>
       <c r="C21">
-        <v>338.208380030374</v>
+        <v>365.0803365132438</v>
       </c>
       <c r="D21">
-        <v>1.414833789984805</v>
+        <v>15.58449843517371</v>
       </c>
       <c r="E21">
-        <v>160.8545636146883</v>
+        <v>57.84280384636082</v>
       </c>
       <c r="F21">
-        <v>499.0629436450623</v>
+        <v>422.9231403596046</v>
       </c>
       <c r="G21">
-        <v>500.4777774350471</v>
+        <v>438.5076387947783</v>
       </c>
       <c r="H21">
-        <v>162.2693974046732</v>
+        <v>73.42730228153454</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1018,25 +1018,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16.26783681079229</v>
+        <v>21.07455978384376</v>
       </c>
       <c r="C22">
-        <v>354.4762168411663</v>
+        <v>386.1548962970875</v>
       </c>
       <c r="D22">
-        <v>0.3543288081290864</v>
+        <v>9.884299073922062</v>
       </c>
       <c r="E22">
-        <v>146.0015605938809</v>
+        <v>52.35274249769077</v>
       </c>
       <c r="F22">
-        <v>500.4777774350471</v>
+        <v>438.5076387947783</v>
       </c>
       <c r="G22">
-        <v>500.8321062431762</v>
+        <v>448.3919378687004</v>
       </c>
       <c r="H22">
-        <v>146.35588940201</v>
+        <v>62.23704157161285</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1047,25 +1047,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.160908636024672</v>
+        <v>46.68289108442296</v>
       </c>
       <c r="C23">
-        <v>363.6371254771909</v>
+        <v>432.8377873815105</v>
       </c>
       <c r="D23">
-        <v>3.989888774236596</v>
+        <v>4.348679733382511</v>
       </c>
       <c r="E23">
-        <v>137.1949807659853</v>
+        <v>15.55415048718987</v>
       </c>
       <c r="F23">
-        <v>500.8321062431762</v>
+        <v>448.3919378687004</v>
       </c>
       <c r="G23">
-        <v>504.8219950174128</v>
+        <v>452.7406176020829</v>
       </c>
       <c r="H23">
-        <v>141.1848695402219</v>
+        <v>19.90283022057241</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1076,25 +1076,25 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4.588228737452678</v>
+        <v>17.77342685182294</v>
       </c>
       <c r="C24">
-        <v>368.2253542146436</v>
+        <v>450.6112142333334</v>
       </c>
       <c r="D24">
-        <v>36.41052340680616</v>
+        <v>2.379040103191848</v>
       </c>
       <c r="E24">
-        <v>136.5966408027692</v>
+        <v>2.129403368749479</v>
       </c>
       <c r="F24">
-        <v>504.8219950174128</v>
+        <v>452.7406176020829</v>
       </c>
       <c r="G24">
-        <v>541.2325184242189</v>
+        <v>455.1196577052748</v>
       </c>
       <c r="H24">
-        <v>173.0071642095754</v>
+        <v>4.508443471941348</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1105,28 +1105,28 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24.0127627496001</v>
+        <v>23.09638573864125</v>
       </c>
       <c r="C25">
-        <v>392.2381169642437</v>
+        <v>473.7075999719747</v>
       </c>
       <c r="D25">
-        <v>45.330224822959</v>
+        <v>4.569111823567942</v>
       </c>
       <c r="E25">
-        <v>148.9944014599753</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>541.2325184242189</v>
+        <v>473.7075999719747</v>
       </c>
       <c r="G25">
-        <v>586.562743247178</v>
+        <v>478.2767117955426</v>
       </c>
       <c r="H25">
-        <v>194.3246262829343</v>
+        <v>4.569111823567937</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.58794226669988</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1134,28 +1134,28 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.981357325852406</v>
+        <v>22.31873924382816</v>
       </c>
       <c r="C26">
-        <v>401.2194742900961</v>
+        <v>496.0263392158028</v>
       </c>
       <c r="D26">
-        <v>5.58772178599717</v>
+        <v>31.25017396506954</v>
       </c>
       <c r="E26">
-        <v>185.3432689570819</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>586.562743247178</v>
+        <v>496.0263392158028</v>
       </c>
       <c r="G26">
-        <v>592.1504650331751</v>
+        <v>527.2765131808724</v>
       </c>
       <c r="H26">
-        <v>190.9309907430791</v>
+        <v>31.25017396506956</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>17.7496274202602</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1163,25 +1163,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>8.744107770051556</v>
+        <v>15.42360512323008</v>
       </c>
       <c r="C27">
-        <v>409.9635820601476</v>
+        <v>511.4499443390329</v>
       </c>
       <c r="D27">
-        <v>7.039521509966693</v>
+        <v>12.06015618753383</v>
       </c>
       <c r="E27">
-        <v>182.1868829730275</v>
+        <v>15.8265688418395</v>
       </c>
       <c r="F27">
-        <v>592.1504650331751</v>
+        <v>527.2765131808724</v>
       </c>
       <c r="G27">
-        <v>599.1899865431418</v>
+        <v>539.3366693684062</v>
       </c>
       <c r="H27">
-        <v>189.2264044829942</v>
+        <v>27.88672502937334</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1192,25 +1192,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.7957758175696505</v>
+        <v>0.3856036150225871</v>
       </c>
       <c r="C28">
-        <v>410.7593578777173</v>
+        <v>511.8355479540555</v>
       </c>
       <c r="D28">
-        <v>3.683492014187285</v>
+        <v>41.58894711655541</v>
       </c>
       <c r="E28">
-        <v>188.4306286654245</v>
+        <v>27.50112141435073</v>
       </c>
       <c r="F28">
-        <v>599.1899865431418</v>
+        <v>539.3366693684062</v>
       </c>
       <c r="G28">
-        <v>602.8734785573291</v>
+        <v>580.9256164849617</v>
       </c>
       <c r="H28">
-        <v>192.1141206796119</v>
+        <v>69.09006853090619</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1221,25 +1221,25 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>4.647079862996961</v>
+        <v>10.48341480549079</v>
       </c>
       <c r="C29">
-        <v>415.4064377407142</v>
+        <v>522.3189627595463</v>
       </c>
       <c r="D29">
-        <v>2.322931928143949</v>
+        <v>26.90844764118076</v>
       </c>
       <c r="E29">
-        <v>187.4670408166149</v>
+        <v>58.60665372541541</v>
       </c>
       <c r="F29">
-        <v>602.8734785573291</v>
+        <v>580.9256164849617</v>
       </c>
       <c r="G29">
-        <v>605.1964104854731</v>
+        <v>607.8340641261424</v>
       </c>
       <c r="H29">
-        <v>189.7899727447588</v>
+        <v>85.51510136659613</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1250,25 +1250,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>28.65378422663887</v>
+        <v>1.132629318871718</v>
       </c>
       <c r="C30">
-        <v>444.0602219673531</v>
+        <v>523.451592078418</v>
       </c>
       <c r="D30">
-        <v>0.6513008732102565</v>
+        <v>16.18089762950062</v>
       </c>
       <c r="E30">
-        <v>161.1361885181199</v>
+        <v>84.38247204772438</v>
       </c>
       <c r="F30">
-        <v>605.1964104854731</v>
+        <v>607.8340641261424</v>
       </c>
       <c r="G30">
-        <v>605.8477113586833</v>
+        <v>624.014961755643</v>
       </c>
       <c r="H30">
-        <v>161.7874893913302</v>
+        <v>100.563369677225</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1279,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>9.783071367177822</v>
+        <v>32.78625824713081</v>
       </c>
       <c r="C31">
-        <v>453.8432933345309</v>
+        <v>556.2378503255488</v>
       </c>
       <c r="D31">
-        <v>56.481007115699</v>
+        <v>20.12921581601116</v>
       </c>
       <c r="E31">
-        <v>152.0044180241524</v>
+        <v>67.77711143009412</v>
       </c>
       <c r="F31">
-        <v>605.8477113586833</v>
+        <v>624.014961755643</v>
       </c>
       <c r="G31">
-        <v>662.3287184743823</v>
+        <v>644.1441775716542</v>
       </c>
       <c r="H31">
-        <v>208.4854251398514</v>
+        <v>87.90632724610532</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1308,25 +1308,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>11.66028990394178</v>
+        <v>39.25169952741762</v>
       </c>
       <c r="C32">
-        <v>465.5035832384727</v>
+        <v>595.4895498529664</v>
       </c>
       <c r="D32">
-        <v>39.63992579340628</v>
+        <v>0.5109586833848033</v>
       </c>
       <c r="E32">
-        <v>196.8251352359096</v>
+        <v>48.65462771868772</v>
       </c>
       <c r="F32">
-        <v>662.3287184743823</v>
+        <v>644.1441775716542</v>
       </c>
       <c r="G32">
-        <v>701.9686442677886</v>
+        <v>644.655136255039</v>
       </c>
       <c r="H32">
-        <v>236.4650610293159</v>
+        <v>49.16558640207256</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1337,25 +1337,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.880141422006368</v>
+        <v>14.12779781085889</v>
       </c>
       <c r="C33">
-        <v>467.3837246604791</v>
+        <v>609.6173476638253</v>
       </c>
       <c r="D33">
-        <v>25.6705915931511</v>
+        <v>20.04460925575501</v>
       </c>
       <c r="E33">
-        <v>234.5849196073095</v>
+        <v>35.03778859121371</v>
       </c>
       <c r="F33">
-        <v>701.9686442677886</v>
+        <v>644.655136255039</v>
       </c>
       <c r="G33">
-        <v>727.6392358609397</v>
+        <v>664.6997455107941</v>
       </c>
       <c r="H33">
-        <v>260.2555112004607</v>
+        <v>55.08239784696877</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -1366,25 +1366,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>53.37362834123421</v>
+        <v>9.27120637736296</v>
       </c>
       <c r="C34">
-        <v>520.7573530017132</v>
+        <v>618.8885540411883</v>
       </c>
       <c r="D34">
-        <v>7.558336549164592</v>
+        <v>13.39057563550627</v>
       </c>
       <c r="E34">
-        <v>206.8818828592265</v>
+        <v>45.81119146960577</v>
       </c>
       <c r="F34">
-        <v>727.6392358609397</v>
+        <v>664.6997455107941</v>
       </c>
       <c r="G34">
-        <v>735.1975724101043</v>
+        <v>678.0903211463003</v>
       </c>
       <c r="H34">
-        <v>214.440219408391</v>
+        <v>59.20176710511203</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1395,25 +1395,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>17.83449120268787</v>
+        <v>10.64064704239097</v>
       </c>
       <c r="C35">
-        <v>538.5918442044011</v>
+        <v>629.5292010835792</v>
       </c>
       <c r="D35">
-        <v>13.02914523152127</v>
+        <v>8.343067407057477</v>
       </c>
       <c r="E35">
-        <v>196.6057282057031</v>
+        <v>48.5611200627211</v>
       </c>
       <c r="F35">
-        <v>735.1975724101043</v>
+        <v>678.0903211463003</v>
       </c>
       <c r="G35">
-        <v>748.2267176416256</v>
+        <v>686.4333885533578</v>
       </c>
       <c r="H35">
-        <v>209.6348734372244</v>
+        <v>56.90418746977855</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1424,25 +1424,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9.313534292551399</v>
+        <v>52.15344953641191</v>
       </c>
       <c r="C36">
-        <v>547.9053784969525</v>
+        <v>681.6826506199911</v>
       </c>
       <c r="D36">
-        <v>13.97651174606461</v>
+        <v>18.64466568880402</v>
       </c>
       <c r="E36">
-        <v>200.3213391446731</v>
+        <v>4.750737933366622</v>
       </c>
       <c r="F36">
-        <v>748.2267176416256</v>
+        <v>686.4333885533578</v>
       </c>
       <c r="G36">
-        <v>762.2032293876902</v>
+        <v>705.0780542421618</v>
       </c>
       <c r="H36">
-        <v>214.2978508907377</v>
+        <v>23.39540362217065</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1453,25 +1453,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>5.463460791964425</v>
+        <v>2.673954167969156</v>
       </c>
       <c r="C37">
-        <v>553.3688392889169</v>
+        <v>684.3566047879602</v>
       </c>
       <c r="D37">
-        <v>12.68403414136433</v>
+        <v>2.472861640249233</v>
       </c>
       <c r="E37">
-        <v>208.8343900987733</v>
+        <v>20.72144945420155</v>
       </c>
       <c r="F37">
-        <v>762.2032293876902</v>
+        <v>705.0780542421618</v>
       </c>
       <c r="G37">
-        <v>774.8872635290545</v>
+        <v>707.550915882411</v>
       </c>
       <c r="H37">
-        <v>221.5184242401376</v>
+        <v>23.19431109445077</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1482,25 +1482,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6.374573206544635</v>
+        <v>11.16453521457312</v>
       </c>
       <c r="C38">
-        <v>559.7434124954615</v>
+        <v>695.5211400025333</v>
       </c>
       <c r="D38">
-        <v>6.952302067483168</v>
+        <v>17.52980242160027</v>
       </c>
       <c r="E38">
-        <v>215.143851033593</v>
+        <v>12.02977587987766</v>
       </c>
       <c r="F38">
-        <v>774.8872635290545</v>
+        <v>707.550915882411</v>
       </c>
       <c r="G38">
-        <v>781.8395655965377</v>
+        <v>725.0807183040113</v>
       </c>
       <c r="H38">
-        <v>222.0961531010762</v>
+        <v>29.55957830147793</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -1511,28 +1511,28 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3.106811539878704</v>
+        <v>150.5399485780875</v>
       </c>
       <c r="C39">
-        <v>562.8502240353401</v>
+        <v>846.0610885806209</v>
       </c>
       <c r="D39">
-        <v>3.330722030615776</v>
+        <v>1.207955354244895</v>
       </c>
       <c r="E39">
-        <v>218.9893415611975</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>781.8395655965377</v>
+        <v>846.0610885806209</v>
       </c>
       <c r="G39">
-        <v>785.1702876271535</v>
+        <v>847.2690439348657</v>
       </c>
       <c r="H39">
-        <v>222.3200635918133</v>
+        <v>1.207955354244859</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>120.9803702766096</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1540,28 +1540,28 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>5.096979801945926</v>
+        <v>1.80946628473037</v>
       </c>
       <c r="C40">
-        <v>567.9472038372861</v>
+        <v>847.8705548653512</v>
       </c>
       <c r="D40">
-        <v>5.337399260175284</v>
+        <v>8.470763156194911</v>
       </c>
       <c r="E40">
-        <v>217.2230837898674</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>785.1702876271535</v>
+        <v>847.8705548653512</v>
       </c>
       <c r="G40">
-        <v>790.5076868873288</v>
+        <v>856.3413180215462</v>
       </c>
       <c r="H40">
-        <v>222.5604830500426</v>
+        <v>8.470763156194948</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.6015109304854604</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1569,25 +1569,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>11.78300901569818</v>
+        <v>6.822635130282572</v>
       </c>
       <c r="C41">
-        <v>579.7302128529843</v>
+        <v>854.6931899956338</v>
       </c>
       <c r="D41">
-        <v>44.8320702072203</v>
+        <v>6.784900318974161</v>
       </c>
       <c r="E41">
-        <v>210.7774740343444</v>
+        <v>1.648128025912342</v>
       </c>
       <c r="F41">
-        <v>790.5076868873288</v>
+        <v>856.3413180215462</v>
       </c>
       <c r="G41">
-        <v>835.3397570945491</v>
+        <v>863.1262183405203</v>
       </c>
       <c r="H41">
-        <v>255.6095442415648</v>
+        <v>8.433028344886452</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1598,25 +1598,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>44.41226473824463</v>
+        <v>6.677727002197464</v>
       </c>
       <c r="C42">
-        <v>624.142477591229</v>
+        <v>861.3709169978313</v>
       </c>
       <c r="D42">
-        <v>4.473782988603996</v>
+        <v>3.713222200421495</v>
       </c>
       <c r="E42">
-        <v>211.1972795033201</v>
+        <v>1.755301342688995</v>
       </c>
       <c r="F42">
-        <v>835.3397570945491</v>
+        <v>863.1262183405203</v>
       </c>
       <c r="G42">
-        <v>839.813540083153</v>
+        <v>866.8394405409417</v>
       </c>
       <c r="H42">
-        <v>215.6710624919241</v>
+        <v>5.46852354311045</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1627,28 +1627,28 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>63.761703455042</v>
+        <v>15.13803890263808</v>
       </c>
       <c r="C43">
-        <v>687.904181046271</v>
+        <v>876.5089559004693</v>
       </c>
       <c r="D43">
-        <v>12.0625819940235</v>
+        <v>96.70901563622498</v>
       </c>
       <c r="E43">
-        <v>151.9093590368821</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>839.813540083153</v>
+        <v>876.5089559004693</v>
       </c>
       <c r="G43">
-        <v>851.8761220771765</v>
+        <v>973.2179715366943</v>
       </c>
       <c r="H43">
-        <v>163.9719410309056</v>
+        <v>96.70901563622499</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>9.669515359527622</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1656,25 +1656,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>10.07329085477732</v>
+        <v>9.899323889196531</v>
       </c>
       <c r="C44">
-        <v>697.9774719010483</v>
+        <v>886.4082797896659</v>
       </c>
       <c r="D44">
-        <v>0.6224778058894336</v>
+        <v>8.230469231561182</v>
       </c>
       <c r="E44">
-        <v>153.8986501761283</v>
+        <v>86.80969174702841</v>
       </c>
       <c r="F44">
-        <v>851.8761220771765</v>
+        <v>973.2179715366943</v>
       </c>
       <c r="G44">
-        <v>852.4985998830659</v>
+        <v>981.4484407682555</v>
       </c>
       <c r="H44">
-        <v>154.5211279820177</v>
+        <v>95.0401609785896</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>65.93103274039437</v>
+        <v>17.49600293893222</v>
       </c>
       <c r="C45">
-        <v>763.9085046414426</v>
+        <v>903.9042827285981</v>
       </c>
       <c r="D45">
-        <v>1.592900932397789</v>
+        <v>7.437769311308948</v>
       </c>
       <c r="E45">
-        <v>88.59009524162332</v>
+        <v>77.54415803965742</v>
       </c>
       <c r="F45">
-        <v>852.4985998830659</v>
+        <v>981.4484407682555</v>
       </c>
       <c r="G45">
-        <v>854.0915008154637</v>
+        <v>988.8862100795644</v>
       </c>
       <c r="H45">
-        <v>90.18299617402113</v>
+        <v>84.98192735096632</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -1714,25 +1714,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2.435259918372829</v>
+        <v>15.36929957944796</v>
       </c>
       <c r="C46">
-        <v>766.3437645598154</v>
+        <v>919.2735823080461</v>
       </c>
       <c r="D46">
-        <v>3.797101461624883</v>
+        <v>0.2018913551916753</v>
       </c>
       <c r="E46">
-        <v>87.74773625564831</v>
+        <v>69.61262777151831</v>
       </c>
       <c r="F46">
-        <v>854.0915008154637</v>
+        <v>988.8862100795644</v>
       </c>
       <c r="G46">
-        <v>857.8886022770886</v>
+        <v>989.0881014347561</v>
       </c>
       <c r="H46">
-        <v>91.54483771727314</v>
+        <v>69.81451912671002</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -1743,25 +1743,25 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2.823060491610632</v>
+        <v>32.14678362488635</v>
       </c>
       <c r="C47">
-        <v>769.166825051426</v>
+        <v>951.4203659329324</v>
       </c>
       <c r="D47">
-        <v>23.48724703766394</v>
+        <v>17.9560505284365</v>
       </c>
       <c r="E47">
-        <v>88.72177722566255</v>
+        <v>37.6677355018237</v>
       </c>
       <c r="F47">
-        <v>857.8886022770886</v>
+        <v>989.0881014347561</v>
       </c>
       <c r="G47">
-        <v>881.3758493147525</v>
+        <v>1007.044151963193</v>
       </c>
       <c r="H47">
-        <v>112.2090242633265</v>
+        <v>55.62378603026025</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -1772,28 +1772,28 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>10.12973974136986</v>
+        <v>66.02932084438845</v>
       </c>
       <c r="C48">
-        <v>779.2965647927958</v>
+        <v>1017.449686777321</v>
       </c>
       <c r="D48">
-        <v>9.974026872118467</v>
+        <v>29.07422423465749</v>
       </c>
       <c r="E48">
-        <v>102.0792845219567</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>881.3758493147525</v>
+        <v>1017.449686777321</v>
       </c>
       <c r="G48">
-        <v>891.3498761868709</v>
+        <v>1046.523911011978</v>
       </c>
       <c r="H48">
-        <v>112.0533113940751</v>
+        <v>29.07422423465755</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>10.40553481412826</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1801,25 +1801,25 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>4.095045839881056</v>
+        <v>7.511085404380982</v>
       </c>
       <c r="C49">
-        <v>783.3916106326769</v>
+        <v>1024.960772181702</v>
       </c>
       <c r="D49">
-        <v>12.1636111694769</v>
+        <v>8.115351674625627</v>
       </c>
       <c r="E49">
-        <v>107.958265554194</v>
+        <v>21.56313883027656</v>
       </c>
       <c r="F49">
-        <v>891.3498761868709</v>
+        <v>1046.523911011978</v>
       </c>
       <c r="G49">
-        <v>903.5134873563478</v>
+        <v>1054.639262686604</v>
       </c>
       <c r="H49">
-        <v>120.1218767236709</v>
+        <v>29.67849050490213</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -1830,25 +1830,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2.049746839015526</v>
+        <v>10.51162249687806</v>
       </c>
       <c r="C50">
-        <v>785.4413574716924</v>
+        <v>1035.47239467858</v>
       </c>
       <c r="D50">
-        <v>8.285242774985337</v>
+        <v>0.5506257955856086</v>
       </c>
       <c r="E50">
-        <v>118.0721298846554</v>
+        <v>19.16686800802404</v>
       </c>
       <c r="F50">
-        <v>903.5134873563478</v>
+        <v>1054.639262686604</v>
       </c>
       <c r="G50">
-        <v>911.7987301313332</v>
+        <v>1055.18988848219</v>
       </c>
       <c r="H50">
-        <v>126.3573726596408</v>
+        <v>19.71749380360961</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -1859,25 +1859,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>20.86907577641233</v>
+        <v>6.405315349324877</v>
       </c>
       <c r="C51">
-        <v>806.3104332481048</v>
+        <v>1041.877710027905</v>
       </c>
       <c r="D51">
-        <v>16.99135557116037</v>
+        <v>0.6128201698174029</v>
       </c>
       <c r="E51">
-        <v>105.4882968832284</v>
+        <v>13.31217845428478</v>
       </c>
       <c r="F51">
-        <v>911.7987301313332</v>
+        <v>1055.18988848219</v>
       </c>
       <c r="G51">
-        <v>928.7900857024936</v>
+        <v>1055.802708652007</v>
       </c>
       <c r="H51">
-        <v>122.4796524543888</v>
+        <v>13.92499862410227</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>15.26289339735211</v>
+        <v>2.733695195610967</v>
       </c>
       <c r="C52">
-        <v>821.5733266454569</v>
+        <v>1044.611405223516</v>
       </c>
       <c r="D52">
-        <v>22.926290002762</v>
+        <v>17.07240962354891</v>
       </c>
       <c r="E52">
-        <v>107.2167590570367</v>
+        <v>11.19130342849121</v>
       </c>
       <c r="F52">
-        <v>928.7900857024936</v>
+        <v>1055.802708652007</v>
       </c>
       <c r="G52">
-        <v>951.7163757052556</v>
+        <v>1072.875118275556</v>
       </c>
       <c r="H52">
-        <v>130.1430490597987</v>
+        <v>28.2637130520402</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -1917,25 +1917,25 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>11.14994773818665</v>
+        <v>11.9168681289491</v>
       </c>
       <c r="C53">
-        <v>832.7232743836435</v>
+        <v>1056.528273352465</v>
       </c>
       <c r="D53">
-        <v>10.88763535031887</v>
+        <v>27.97070406610399</v>
       </c>
       <c r="E53">
-        <v>118.9931013216121</v>
+        <v>16.34684492309111</v>
       </c>
       <c r="F53">
-        <v>951.7163757052556</v>
+        <v>1072.875118275556</v>
       </c>
       <c r="G53">
-        <v>962.6040110555745</v>
+        <v>1100.84582234166</v>
       </c>
       <c r="H53">
-        <v>129.880736671931</v>
+        <v>44.31754898919507</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -1946,25 +1946,25 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>5.603751633326209</v>
+        <v>7.486808457646404</v>
       </c>
       <c r="C54">
-        <v>838.3270260169696</v>
+        <v>1064.015081810111</v>
       </c>
       <c r="D54">
-        <v>14.37776900972689</v>
+        <v>36.48017172380474</v>
       </c>
       <c r="E54">
-        <v>124.2769850386048</v>
+        <v>36.8307405315486</v>
       </c>
       <c r="F54">
-        <v>962.6040110555745</v>
+        <v>1100.84582234166</v>
       </c>
       <c r="G54">
-        <v>976.9817800653013</v>
+        <v>1137.325994065465</v>
       </c>
       <c r="H54">
-        <v>138.6547540483317</v>
+        <v>73.31091225535329</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -1975,25 +1975,25 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>14.26646068228623</v>
+        <v>41.50569239211345</v>
       </c>
       <c r="C55">
-        <v>852.5934866992559</v>
+        <v>1105.520774202225</v>
       </c>
       <c r="D55">
-        <v>14.03558873747802</v>
+        <v>11.97980479129845</v>
       </c>
       <c r="E55">
-        <v>124.3882933660454</v>
+        <v>31.80521986323993</v>
       </c>
       <c r="F55">
-        <v>976.9817800653013</v>
+        <v>1137.325994065465</v>
       </c>
       <c r="G55">
-        <v>991.0173688027794</v>
+        <v>1149.305798856763</v>
       </c>
       <c r="H55">
-        <v>138.4238821035235</v>
+        <v>43.78502465453835</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>7.653910578667205</v>
+        <v>30.0706334276116</v>
       </c>
       <c r="C56">
-        <v>860.2473972779231</v>
+        <v>1135.591407629837</v>
       </c>
       <c r="D56">
-        <v>4.520378900067868</v>
+        <v>3.1537563550969</v>
       </c>
       <c r="E56">
-        <v>130.7699715248563</v>
+        <v>13.71439122692664</v>
       </c>
       <c r="F56">
-        <v>991.0173688027794</v>
+        <v>1149.305798856763</v>
       </c>
       <c r="G56">
-        <v>995.5377477028472</v>
+        <v>1152.45955521186</v>
       </c>
       <c r="H56">
-        <v>135.2903504249241</v>
+        <v>16.86814758202354</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2033,25 +2033,25 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.657033062534531</v>
+        <v>10.29209162272669</v>
       </c>
       <c r="C57">
-        <v>861.9044303404577</v>
+        <v>1145.883499252563</v>
       </c>
       <c r="D57">
-        <v>0.9729545672504972</v>
+        <v>29.05776617262318</v>
       </c>
       <c r="E57">
-        <v>133.6333173623896</v>
+        <v>6.576055959296809</v>
       </c>
       <c r="F57">
-        <v>995.5377477028472</v>
+        <v>1152.45955521186</v>
       </c>
       <c r="G57">
-        <v>996.5107022700978</v>
+        <v>1181.517321384483</v>
       </c>
       <c r="H57">
-        <v>134.6062719296401</v>
+        <v>35.63382213191994</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -2062,25 +2062,25 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>14.91261666377049</v>
+        <v>17.26099944478572</v>
       </c>
       <c r="C58">
-        <v>876.8170470042281</v>
+        <v>1163.144498697349</v>
       </c>
       <c r="D58">
-        <v>8.687776927624395</v>
+        <v>23.75978092900388</v>
       </c>
       <c r="E58">
-        <v>119.6936552658697</v>
+        <v>18.3728226871342</v>
       </c>
       <c r="F58">
-        <v>996.5107022700978</v>
+        <v>1181.517321384483</v>
       </c>
       <c r="G58">
-        <v>1005.198479197722</v>
+        <v>1205.277102313487</v>
       </c>
       <c r="H58">
-        <v>128.3814321934941</v>
+        <v>42.13260361613811</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -2091,25 +2091,25 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>22.96009258224133</v>
+        <v>9.984817041951901</v>
       </c>
       <c r="C59">
-        <v>899.7771395864695</v>
+        <v>1173.129315739301</v>
       </c>
       <c r="D59">
-        <v>19.94960743239427</v>
+        <v>22.19895312339178</v>
       </c>
       <c r="E59">
-        <v>105.4213396112527</v>
+        <v>32.14778657418628</v>
       </c>
       <c r="F59">
-        <v>1005.198479197722</v>
+        <v>1205.277102313487</v>
       </c>
       <c r="G59">
-        <v>1025.148086630116</v>
+        <v>1227.476055436879</v>
       </c>
       <c r="H59">
-        <v>125.370947043647</v>
+        <v>54.34673969757796</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2120,25 +2120,25 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>31.64284803176047</v>
+        <v>30.19838203264901</v>
       </c>
       <c r="C60">
-        <v>931.4199876182299</v>
+        <v>1203.32769777195</v>
       </c>
       <c r="D60">
-        <v>17.99215224119198</v>
+        <v>0.4134550690849603</v>
       </c>
       <c r="E60">
-        <v>93.72809901188657</v>
+        <v>24.14835766492888</v>
       </c>
       <c r="F60">
-        <v>1025.148086630116</v>
+        <v>1227.476055436879</v>
       </c>
       <c r="G60">
-        <v>1043.140238871308</v>
+        <v>1227.889510505964</v>
       </c>
       <c r="H60">
-        <v>111.7202512530785</v>
+        <v>24.56181273401376</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2149,25 +2149,25 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>26.62800351759883</v>
+        <v>0.8653739962771357</v>
       </c>
       <c r="C61">
-        <v>958.0479911358287</v>
+        <v>1204.193071768227</v>
       </c>
       <c r="D61">
-        <v>6.220859211912608</v>
+        <v>12.5278933734033</v>
       </c>
       <c r="E61">
-        <v>85.09224773547965</v>
+        <v>23.69643873773657</v>
       </c>
       <c r="F61">
-        <v>1043.140238871308</v>
+        <v>1227.889510505964</v>
       </c>
       <c r="G61">
-        <v>1049.361098083221</v>
+        <v>1240.417403879367</v>
       </c>
       <c r="H61">
-        <v>91.31310694739216</v>
+        <v>36.2243321111398</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2178,25 +2178,25 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>11.3861981557817</v>
+        <v>11.22246241191809</v>
       </c>
       <c r="C62">
-        <v>969.4341892916104</v>
+        <v>1215.415534180145</v>
       </c>
       <c r="D62">
-        <v>19.25939452917859</v>
+        <v>14.53285635587231</v>
       </c>
       <c r="E62">
-        <v>79.92690879161046</v>
+        <v>25.00186969922174</v>
       </c>
       <c r="F62">
-        <v>1049.361098083221</v>
+        <v>1240.417403879367</v>
       </c>
       <c r="G62">
-        <v>1068.620492612399</v>
+        <v>1254.950260235239</v>
       </c>
       <c r="H62">
-        <v>99.18630332078897</v>
+        <v>39.5347260550941</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>22.81135273198801</v>
+        <v>0.8909162073817716</v>
       </c>
       <c r="C63">
-        <v>992.2455420235984</v>
+        <v>1216.306450387527</v>
       </c>
       <c r="D63">
-        <v>14.48671686259856</v>
+        <v>23.37588112716495</v>
       </c>
       <c r="E63">
-        <v>76.37495058880097</v>
+        <v>38.64380984771242</v>
       </c>
       <c r="F63">
-        <v>1068.620492612399</v>
+        <v>1254.950260235239</v>
       </c>
       <c r="G63">
-        <v>1083.107209474998</v>
+        <v>1278.326141362404</v>
       </c>
       <c r="H63">
-        <v>90.86166745139951</v>
+        <v>62.01969097487745</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>32.14578619607875</v>
+        <v>21.04395359434923</v>
       </c>
       <c r="C64">
-        <v>1024.391328219677</v>
+        <v>1237.350403981876</v>
       </c>
       <c r="D64">
-        <v>41.39793255728327</v>
+        <v>5.553572212776121</v>
       </c>
       <c r="E64">
-        <v>58.71588125532071</v>
+        <v>40.97573738052824</v>
       </c>
       <c r="F64">
-        <v>1083.107209474998</v>
+        <v>1278.326141362404</v>
       </c>
       <c r="G64">
-        <v>1124.505142032281</v>
+        <v>1283.87971357518</v>
       </c>
       <c r="H64">
-        <v>100.1138138126039</v>
+        <v>46.52930959330433</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2265,25 +2265,25 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>37.55409115987978</v>
+        <v>16.00076114991316</v>
       </c>
       <c r="C65">
-        <v>1061.945419379557</v>
+        <v>1253.351165131789</v>
       </c>
       <c r="D65">
-        <v>11.18629557095341</v>
+        <v>5.07065490366224</v>
       </c>
       <c r="E65">
-        <v>62.55972265272408</v>
+        <v>30.52854844339117</v>
       </c>
       <c r="F65">
-        <v>1124.505142032281</v>
+        <v>1283.87971357518</v>
       </c>
       <c r="G65">
-        <v>1135.691437603235</v>
+        <v>1288.950368478843</v>
       </c>
       <c r="H65">
-        <v>73.74601822367754</v>
+        <v>35.59920334705339</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2294,25 +2294,25 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>63.27664930800153</v>
+        <v>10.4349813788208</v>
       </c>
       <c r="C66">
-        <v>1125.222068687558</v>
+        <v>1263.78614651061</v>
       </c>
       <c r="D66">
-        <v>3.070474173415249</v>
+        <v>26.47951170309502</v>
       </c>
       <c r="E66">
-        <v>10.46936891567611</v>
+        <v>25.1642219682326</v>
       </c>
       <c r="F66">
-        <v>1135.691437603235</v>
+        <v>1288.950368478843</v>
       </c>
       <c r="G66">
-        <v>1138.76191177665</v>
+        <v>1315.429880181938</v>
       </c>
       <c r="H66">
-        <v>13.53984308909139</v>
+        <v>51.64373367132771</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -2323,25 +2323,25 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>12.52074269893699</v>
+        <v>0.3668854811041885</v>
       </c>
       <c r="C67">
-        <v>1137.742811386496</v>
+        <v>1264.153031991714</v>
       </c>
       <c r="D67">
-        <v>53.43206756674581</v>
+        <v>10.01826501596016</v>
       </c>
       <c r="E67">
-        <v>1.019100390154335</v>
+        <v>51.27684819022352</v>
       </c>
       <c r="F67">
-        <v>1138.76191177665</v>
+        <v>1315.429880181938</v>
       </c>
       <c r="G67">
-        <v>1192.193979343396</v>
+        <v>1325.448145197898</v>
       </c>
       <c r="H67">
-        <v>54.45116795690024</v>
+        <v>61.29511320618371</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -2352,25 +2352,25 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>19.20142902349576</v>
+        <v>50.41311157216054</v>
       </c>
       <c r="C68">
-        <v>1156.944240409991</v>
+        <v>1314.566143563875</v>
       </c>
       <c r="D68">
-        <v>3.182412692840549</v>
+        <v>9.539439168719335</v>
       </c>
       <c r="E68">
-        <v>35.24973893340439</v>
+        <v>10.88200163402325</v>
       </c>
       <c r="F68">
-        <v>1192.193979343396</v>
+        <v>1325.448145197898</v>
       </c>
       <c r="G68">
-        <v>1195.376392036236</v>
+        <v>1334.987584366617</v>
       </c>
       <c r="H68">
-        <v>38.43215162624483</v>
+        <v>20.42144080274261</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -2381,28 +2381,28 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>63.94076790191945</v>
+        <v>1.842150791555059</v>
       </c>
       <c r="C69">
-        <v>1220.885008311911</v>
+        <v>1316.40829435543</v>
       </c>
       <c r="D69">
-        <v>6.992037608007455</v>
+        <v>5.259018459408971</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>18.5792900111876</v>
       </c>
       <c r="F69">
-        <v>1220.885008311911</v>
+        <v>1334.987584366617</v>
       </c>
       <c r="G69">
-        <v>1227.877045919918</v>
+        <v>1340.246602826026</v>
       </c>
       <c r="H69">
-        <v>6.992037608007422</v>
+        <v>23.83830847059653</v>
       </c>
       <c r="I69">
-        <v>25.50861627567451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2410,28 +2410,28 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>36.11008884553671</v>
+        <v>16.51373042375545</v>
       </c>
       <c r="C70">
-        <v>1256.995097157447</v>
+        <v>1332.922024779185</v>
       </c>
       <c r="D70">
-        <v>3.969028283106092</v>
+        <v>36.09688287904492</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>7.324578046840998</v>
       </c>
       <c r="F70">
-        <v>1256.995097157447</v>
+        <v>1340.246602826026</v>
       </c>
       <c r="G70">
-        <v>1260.964125440554</v>
+        <v>1376.343485705071</v>
       </c>
       <c r="H70">
-        <v>3.969028283106127</v>
+        <v>43.42146092588587</v>
       </c>
       <c r="I70">
-        <v>29.11805123752924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2439,28 +2439,28 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>24.29796471861316</v>
+        <v>57.18765133992628</v>
       </c>
       <c r="C71">
-        <v>1281.293061876061</v>
+        <v>1390.109676119112</v>
       </c>
       <c r="D71">
-        <v>15.0254066114766</v>
+        <v>22.2281714413674</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1281.293061876061</v>
+        <v>1390.109676119112</v>
       </c>
       <c r="G71">
-        <v>1296.318468487537</v>
+        <v>1412.337847560479</v>
       </c>
       <c r="H71">
-        <v>15.02540661147668</v>
+        <v>22.22817144136729</v>
       </c>
       <c r="I71">
-        <v>20.3289364355071</v>
+        <v>13.76619041404047</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2468,28 +2468,28 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>38.81562896708837</v>
+        <v>6.386040243670372</v>
       </c>
       <c r="C72">
-        <v>1320.108690843149</v>
+        <v>1396.495716362782</v>
       </c>
       <c r="D72">
-        <v>11.45159644936633</v>
+        <v>7.373096912787321</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>15.84213119769697</v>
       </c>
       <c r="F72">
-        <v>1320.108690843149</v>
+        <v>1412.337847560479</v>
       </c>
       <c r="G72">
-        <v>1331.560287292515</v>
+        <v>1419.710944473266</v>
       </c>
       <c r="H72">
-        <v>11.45159644936643</v>
+        <v>23.2152281104843</v>
       </c>
       <c r="I72">
-        <v>23.7902223556116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2497,28 +2497,28 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>14.91738188999389</v>
+        <v>3.857349906403819</v>
       </c>
       <c r="C73">
-        <v>1335.026072733143</v>
+        <v>1400.353066269186</v>
       </c>
       <c r="D73">
-        <v>8.836210311353938</v>
+        <v>16.40506334103695</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>19.35787820408041</v>
       </c>
       <c r="F73">
-        <v>1335.026072733143</v>
+        <v>1419.710944473266</v>
       </c>
       <c r="G73">
-        <v>1343.862283044497</v>
+        <v>1436.116007814303</v>
       </c>
       <c r="H73">
-        <v>8.836210311353852</v>
+        <v>35.76294154511743</v>
       </c>
       <c r="I73">
-        <v>3.465785440627542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2526,28 +2526,28 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>9.875454555297503</v>
+        <v>7.42130853713629</v>
       </c>
       <c r="C74">
-        <v>1344.90152728844</v>
+        <v>1407.774374806322</v>
       </c>
       <c r="D74">
-        <v>6.087640962861583</v>
+        <v>29.90227947099983</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>28.34163300798105</v>
       </c>
       <c r="F74">
-        <v>1344.90152728844</v>
+        <v>1436.116007814303</v>
       </c>
       <c r="G74">
-        <v>1350.989168251302</v>
+        <v>1466.018287285303</v>
       </c>
       <c r="H74">
-        <v>6.087640962861542</v>
+        <v>58.24391247898097</v>
       </c>
       <c r="I74">
-        <v>1.039244243943585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2555,28 +2555,28 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>50.19440907316778</v>
+        <v>14.75520791878955</v>
       </c>
       <c r="C75">
-        <v>1395.095936361608</v>
+        <v>1422.529582725112</v>
       </c>
       <c r="D75">
-        <v>12.21199868066794</v>
+        <v>5.692908828013519</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>43.48870456019154</v>
       </c>
       <c r="F75">
-        <v>1395.095936361608</v>
+        <v>1466.018287285303</v>
       </c>
       <c r="G75">
-        <v>1407.307935042276</v>
+        <v>1471.711196113317</v>
       </c>
       <c r="H75">
-        <v>12.21199868066788</v>
+        <v>49.18161338820505</v>
       </c>
       <c r="I75">
-        <v>44.10676811030612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2584,25 +2584,25 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5.311696235517629</v>
+        <v>17.85730518210989</v>
       </c>
       <c r="C76">
-        <v>1400.407632597126</v>
+        <v>1440.386887907222</v>
       </c>
       <c r="D76">
-        <v>19.83788553112144</v>
+        <v>2.57061709697434</v>
       </c>
       <c r="E76">
-        <v>6.900302445150146</v>
+        <v>31.32430820609511</v>
       </c>
       <c r="F76">
-        <v>1407.307935042276</v>
+        <v>1471.711196113317</v>
       </c>
       <c r="G76">
-        <v>1427.145820573397</v>
+        <v>1474.281813210291</v>
       </c>
       <c r="H76">
-        <v>26.73818797627155</v>
+        <v>33.89492530306939</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -2613,28 +2613,28 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>35.0991603285599</v>
+        <v>14.68069742310479</v>
       </c>
       <c r="C77">
-        <v>1435.506792925686</v>
+        <v>1455.067585330326</v>
       </c>
       <c r="D77">
-        <v>21.06543368306039</v>
+        <v>16.32694599512586</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>19.21422787996448</v>
       </c>
       <c r="F77">
-        <v>1435.506792925686</v>
+        <v>1474.281813210291</v>
       </c>
       <c r="G77">
-        <v>1456.572226608746</v>
+        <v>1490.608759205417</v>
       </c>
       <c r="H77">
-        <v>21.06543368306029</v>
+        <v>35.54117387509041</v>
       </c>
       <c r="I77">
-        <v>8.3609723522884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2642,28 +2642,28 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>10.03415418784432</v>
+        <v>66.64959817740667</v>
       </c>
       <c r="C78">
-        <v>1445.54094711353</v>
+        <v>1521.717183507733</v>
       </c>
       <c r="D78">
-        <v>39.94606746457228</v>
+        <v>10.33918686476019</v>
       </c>
       <c r="E78">
-        <v>11.03127949521604</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1456.572226608746</v>
+        <v>1521.717183507733</v>
       </c>
       <c r="G78">
-        <v>1496.518294073318</v>
+        <v>1532.056370372493</v>
       </c>
       <c r="H78">
-        <v>50.97734695978829</v>
+        <v>10.33918686476022</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>31.10842430231628</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.914430011993174</v>
+        <v>8.463901671772083</v>
       </c>
       <c r="C79">
-        <v>1448.455377125523</v>
+        <v>1530.181085179505</v>
       </c>
       <c r="D79">
-        <v>23.37128138667493</v>
+        <v>22.39156998695866</v>
       </c>
       <c r="E79">
-        <v>48.0629169477952</v>
+        <v>1.875285192988031</v>
       </c>
       <c r="F79">
-        <v>1496.518294073318</v>
+        <v>1532.056370372493</v>
       </c>
       <c r="G79">
-        <v>1519.889575459993</v>
+        <v>1554.447940359452</v>
       </c>
       <c r="H79">
-        <v>71.43419833447024</v>
+        <v>24.26685517994679</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -2700,25 +2700,25 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>10.60261517152965</v>
+        <v>2.265673027944976</v>
       </c>
       <c r="C80">
-        <v>1459.057992297053</v>
+        <v>1532.44675820745</v>
       </c>
       <c r="D80">
-        <v>39.38689189688628</v>
+        <v>5.927701727719581</v>
       </c>
       <c r="E80">
-        <v>60.83158316294066</v>
+        <v>22.00118215200177</v>
       </c>
       <c r="F80">
-        <v>1519.889575459993</v>
+        <v>1554.447940359452</v>
       </c>
       <c r="G80">
-        <v>1559.276467356879</v>
+        <v>1560.375642087172</v>
       </c>
       <c r="H80">
-        <v>100.2184750598269</v>
+        <v>27.9288838797213</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -2729,25 +2729,25 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>19.784310993191</v>
+        <v>1.268769262292812</v>
       </c>
       <c r="C81">
-        <v>1478.842303290244</v>
+        <v>1533.715527469743</v>
       </c>
       <c r="D81">
-        <v>2.9953208157259</v>
+        <v>11.98788524473319</v>
       </c>
       <c r="E81">
-        <v>80.43416406663596</v>
+        <v>26.66011461742846</v>
       </c>
       <c r="F81">
-        <v>1559.276467356879</v>
+        <v>1560.375642087172</v>
       </c>
       <c r="G81">
-        <v>1562.271788172605</v>
+        <v>1572.363527331905</v>
       </c>
       <c r="H81">
-        <v>83.42948488236175</v>
+        <v>38.64799986216167</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>28.08201441311222</v>
+        <v>10.02270884944459</v>
       </c>
       <c r="C82">
-        <v>1506.924317703356</v>
+        <v>1543.738236319188</v>
       </c>
       <c r="D82">
-        <v>6.938046851188578</v>
+        <v>34.30356058785893</v>
       </c>
       <c r="E82">
-        <v>55.34747046924963</v>
+        <v>28.62529101271707</v>
       </c>
       <c r="F82">
-        <v>1562.271788172605</v>
+        <v>1572.363527331905</v>
       </c>
       <c r="G82">
-        <v>1569.209835023794</v>
+        <v>1606.667087919764</v>
       </c>
       <c r="H82">
-        <v>62.2855173204382</v>
+        <v>62.92885160057608</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -2787,25 +2787,25 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6.283996147529524</v>
+        <v>19.3471235838348</v>
       </c>
       <c r="C83">
-        <v>1513.208313850885</v>
+        <v>1563.085359903023</v>
       </c>
       <c r="D83">
-        <v>4.728595553454321</v>
+        <v>24.53892409891222</v>
       </c>
       <c r="E83">
-        <v>56.00152117290872</v>
+        <v>43.58172801674118</v>
       </c>
       <c r="F83">
-        <v>1569.209835023794</v>
+        <v>1606.667087919764</v>
       </c>
       <c r="G83">
-        <v>1573.938430577248</v>
+        <v>1631.206012018676</v>
       </c>
       <c r="H83">
-        <v>60.73011672636312</v>
+        <v>68.12065211565346</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -2816,25 +2816,25 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>14.03930150598686</v>
+        <v>57.12463223142632</v>
       </c>
       <c r="C84">
-        <v>1527.247615356872</v>
+        <v>1620.209992134449</v>
       </c>
       <c r="D84">
-        <v>19.69690690345387</v>
+        <v>31.6995474646867</v>
       </c>
       <c r="E84">
-        <v>46.69081522037618</v>
+        <v>10.99601988422705</v>
       </c>
       <c r="F84">
-        <v>1573.938430577248</v>
+        <v>1631.206012018676</v>
       </c>
       <c r="G84">
-        <v>1593.635337480702</v>
+        <v>1662.905559483363</v>
       </c>
       <c r="H84">
-        <v>66.38772212383014</v>
+        <v>42.69556734891376</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -2845,25 +2845,25 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>25.68858621433413</v>
+        <v>1.214553522184797</v>
       </c>
       <c r="C85">
-        <v>1552.936201571206</v>
+        <v>1621.424545656634</v>
       </c>
       <c r="D85">
-        <v>8.842889863951823</v>
+        <v>29.70384156824909</v>
       </c>
       <c r="E85">
-        <v>40.69913590949591</v>
+        <v>41.48101382672894</v>
       </c>
       <c r="F85">
-        <v>1593.635337480702</v>
+        <v>1662.905559483363</v>
       </c>
       <c r="G85">
-        <v>1602.478227344654</v>
+        <v>1692.609401051612</v>
       </c>
       <c r="H85">
-        <v>49.54202577344768</v>
+        <v>71.18485539497806</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -2874,25 +2874,25 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>11.42087857780365</v>
+        <v>7.808932628498894</v>
       </c>
       <c r="C86">
-        <v>1564.35708014901</v>
+        <v>1629.233478285133</v>
       </c>
       <c r="D86">
-        <v>1.782444030747807</v>
+        <v>4.467371857510305</v>
       </c>
       <c r="E86">
-        <v>38.12114719564397</v>
+        <v>63.37592276647911</v>
       </c>
       <c r="F86">
-        <v>1602.478227344654</v>
+        <v>1692.609401051612</v>
       </c>
       <c r="G86">
-        <v>1604.260671375402</v>
+        <v>1697.076772909122</v>
       </c>
       <c r="H86">
-        <v>39.90359122639188</v>
+        <v>67.84329462398932</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -2903,25 +2903,25 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7.734682369799682</v>
+        <v>46.28788964534741</v>
       </c>
       <c r="C87">
-        <v>1572.09176251881</v>
+        <v>1675.52136793048</v>
       </c>
       <c r="D87">
-        <v>5.146477972510172</v>
+        <v>3.642560021097129</v>
       </c>
       <c r="E87">
-        <v>32.16890885659222</v>
+        <v>21.55540497864195</v>
       </c>
       <c r="F87">
-        <v>1604.260671375402</v>
+        <v>1697.076772909122</v>
       </c>
       <c r="G87">
-        <v>1609.407149347912</v>
+        <v>1700.719332930219</v>
       </c>
       <c r="H87">
-        <v>37.31538682910241</v>
+        <v>25.19796499973904</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -2932,25 +2932,25 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7.150660513730108</v>
+        <v>0.057736276085495</v>
       </c>
       <c r="C88">
-        <v>1579.24242303254</v>
+        <v>1675.579104206566</v>
       </c>
       <c r="D88">
-        <v>44.19380212398114</v>
+        <v>0.0672383797186957</v>
       </c>
       <c r="E88">
-        <v>30.16472631537226</v>
+        <v>25.14022872365354</v>
       </c>
       <c r="F88">
-        <v>1609.407149347912</v>
+        <v>1700.719332930219</v>
       </c>
       <c r="G88">
-        <v>1653.600951471893</v>
+        <v>1700.786571309938</v>
       </c>
       <c r="H88">
-        <v>74.35852843935345</v>
+        <v>25.20746710337221</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -2961,28 +2961,28 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>9.077874096963312</v>
+        <v>49.27462168748158</v>
       </c>
       <c r="C89">
-        <v>1588.320297129503</v>
+        <v>1724.853725894047</v>
       </c>
       <c r="D89">
-        <v>21.49836495443811</v>
+        <v>0.1454664981046857</v>
       </c>
       <c r="E89">
-        <v>65.28065434239011</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1653.600951471893</v>
+        <v>1724.853725894047</v>
       </c>
       <c r="G89">
-        <v>1675.099316426331</v>
+        <v>1724.999192392152</v>
       </c>
       <c r="H89">
-        <v>86.77901929682821</v>
+        <v>0.1454664981047245</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>24.0671545841094</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2990,28 +2990,28 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>75.19002085584988</v>
+        <v>77.61387669120126</v>
       </c>
       <c r="C90">
-        <v>1663.510317985353</v>
+        <v>1802.467602585249</v>
       </c>
       <c r="D90">
-        <v>18.50359590734853</v>
+        <v>3.913396852559287</v>
       </c>
       <c r="E90">
-        <v>11.58899844097823</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1675.099316426331</v>
+        <v>1802.467602585249</v>
       </c>
       <c r="G90">
-        <v>1693.60291233368</v>
+        <v>1806.380999437808</v>
       </c>
       <c r="H90">
-        <v>30.09259434832666</v>
+        <v>3.913396852559345</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>77.46841019309659</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3019,28 +3019,28 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>6.119082249328601</v>
+        <v>19.37845524652513</v>
       </c>
       <c r="C91">
-        <v>1669.629400234682</v>
+        <v>1821.846057831774</v>
       </c>
       <c r="D91">
-        <v>26.94068226741596</v>
+        <v>1.047823896326972</v>
       </c>
       <c r="E91">
-        <v>23.97351209899807</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1693.60291233368</v>
+        <v>1821.846057831774</v>
       </c>
       <c r="G91">
-        <v>1720.543594601096</v>
+        <v>1822.893881728101</v>
       </c>
       <c r="H91">
-        <v>50.91419436641399</v>
+        <v>1.047823896326918</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>15.46505839396582</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3048,28 +3048,28 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>17.84229199794707</v>
+        <v>25.55672844707422</v>
       </c>
       <c r="C92">
-        <v>1687.471692232629</v>
+        <v>1847.402786278848</v>
       </c>
       <c r="D92">
-        <v>1.53729173069384</v>
+        <v>3.229048647716405</v>
       </c>
       <c r="E92">
-        <v>33.07190236846691</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1720.543594601096</v>
+        <v>1847.402786278848</v>
       </c>
       <c r="G92">
-        <v>1722.08088633179</v>
+        <v>1850.631834926564</v>
       </c>
       <c r="H92">
-        <v>34.60919409916073</v>
+        <v>3.229048647716354</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>24.50890455074727</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3077,28 +3077,28 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>40.27961760788658</v>
+        <v>23.41400370703246</v>
       </c>
       <c r="C93">
-        <v>1727.751309840515</v>
+        <v>1870.81678998588</v>
       </c>
       <c r="D93">
-        <v>0.9008481510701402</v>
+        <v>18.209017567284</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1727.751309840515</v>
+        <v>1870.81678998588</v>
       </c>
       <c r="G93">
-        <v>1728.652157991586</v>
+        <v>1889.025807553164</v>
       </c>
       <c r="H93">
-        <v>0.9008481510702495</v>
+        <v>18.20901756728404</v>
       </c>
       <c r="I93">
-        <v>5.670423508725889</v>
+        <v>20.18495505931605</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3106,25 +3106,25 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.6972368228835994</v>
+        <v>8.023882166262613</v>
       </c>
       <c r="C94">
-        <v>1728.448546663399</v>
+        <v>1878.840672152143</v>
       </c>
       <c r="D94">
-        <v>40.2434859208841</v>
+        <v>27.16053520302687</v>
       </c>
       <c r="E94">
-        <v>0.2036113281867529</v>
+        <v>10.1851354010214</v>
       </c>
       <c r="F94">
-        <v>1728.652157991586</v>
+        <v>1889.025807553164</v>
       </c>
       <c r="G94">
-        <v>1768.89564391247</v>
+        <v>1916.186342756191</v>
       </c>
       <c r="H94">
-        <v>40.44709724907079</v>
+        <v>37.34567060404834</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -3135,25 +3135,25 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.933986897643726</v>
+        <v>7.045881959435133</v>
       </c>
       <c r="C95">
-        <v>1730.382533561043</v>
+        <v>1885.886554111578</v>
       </c>
       <c r="D95">
-        <v>26.07622856242276</v>
+        <v>12.15083720679732</v>
       </c>
       <c r="E95">
-        <v>38.51311035142703</v>
+        <v>30.29978864461327</v>
       </c>
       <c r="F95">
-        <v>1768.89564391247</v>
+        <v>1916.186342756191</v>
       </c>
       <c r="G95">
-        <v>1794.971872474893</v>
+        <v>1928.337179962989</v>
       </c>
       <c r="H95">
-        <v>64.58933891384982</v>
+        <v>42.45062585141068</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3164,25 +3164,25 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>45.67302180534283</v>
+        <v>28.57457414771769</v>
       </c>
       <c r="C96">
-        <v>1776.055555366386</v>
+        <v>1914.461128259296</v>
       </c>
       <c r="D96">
-        <v>15.21770595947214</v>
+        <v>10.35768607297367</v>
       </c>
       <c r="E96">
-        <v>18.91631710850697</v>
+        <v>13.87605170369307</v>
       </c>
       <c r="F96">
-        <v>1794.971872474893</v>
+        <v>1928.337179962989</v>
       </c>
       <c r="G96">
-        <v>1810.189578434365</v>
+        <v>1938.694866035962</v>
       </c>
       <c r="H96">
-        <v>34.13402306797911</v>
+        <v>24.23373777666666</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3193,25 +3193,25 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.508793269375005</v>
+        <v>2.698135545455418</v>
       </c>
       <c r="C97">
-        <v>1777.564348635761</v>
+        <v>1917.159263804751</v>
       </c>
       <c r="D97">
-        <v>5.586457077107281</v>
+        <v>44.378498083498</v>
       </c>
       <c r="E97">
-        <v>32.6252297986041</v>
+        <v>21.53560223121121</v>
       </c>
       <c r="F97">
-        <v>1810.189578434365</v>
+        <v>1938.694866035962</v>
       </c>
       <c r="G97">
-        <v>1815.776035511472</v>
+        <v>1983.07336411946</v>
       </c>
       <c r="H97">
-        <v>38.21168687571139</v>
+        <v>65.91410031470923</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3222,25 +3222,25 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>32.14484983057569</v>
+        <v>21.39567911744171</v>
       </c>
       <c r="C98">
-        <v>1809.709198466336</v>
+        <v>1938.554942922193</v>
       </c>
       <c r="D98">
-        <v>22.4018899715677</v>
+        <v>1.631118876376218</v>
       </c>
       <c r="E98">
-        <v>6.066837045135799</v>
+        <v>44.51842119726757</v>
       </c>
       <c r="F98">
-        <v>1815.776035511472</v>
+        <v>1983.07336411946</v>
       </c>
       <c r="G98">
-        <v>1838.17792548304</v>
+        <v>1984.704482995837</v>
       </c>
       <c r="H98">
-        <v>28.4687270167035</v>
+        <v>46.14954007364372</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -3251,25 +3251,25 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6.395169637141564</v>
+        <v>2.986535874793095</v>
       </c>
       <c r="C99">
-        <v>1816.104368103478</v>
+        <v>1941.541478796986</v>
       </c>
       <c r="D99">
-        <v>14.30854959560299</v>
+        <v>4.878324489061098</v>
       </c>
       <c r="E99">
-        <v>22.07355737956186</v>
+        <v>43.16300419885056</v>
       </c>
       <c r="F99">
-        <v>1838.17792548304</v>
+        <v>1984.704482995837</v>
       </c>
       <c r="G99">
-        <v>1852.486475078643</v>
+        <v>1989.582807484898</v>
       </c>
       <c r="H99">
-        <v>36.38210697516479</v>
+        <v>48.04132868791157</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3280,25 +3280,25 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1.308213300754599</v>
+        <v>13.71533528229579</v>
       </c>
       <c r="C100">
-        <v>1817.412581404232</v>
+        <v>1955.256814079282</v>
       </c>
       <c r="D100">
-        <v>8.800484819261623</v>
+        <v>9.537931041314399</v>
       </c>
       <c r="E100">
-        <v>35.0738936744101</v>
+        <v>34.32599340561569</v>
       </c>
       <c r="F100">
-        <v>1852.486475078643</v>
+        <v>1989.582807484898</v>
       </c>
       <c r="G100">
-        <v>1861.286959897904</v>
+        <v>1999.120738526212</v>
       </c>
       <c r="H100">
-        <v>43.87437849367166</v>
+        <v>43.86392444693001</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3309,25 +3309,25 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>12.3755717619502</v>
+        <v>18.7549299508945</v>
       </c>
       <c r="C101">
-        <v>1829.788153166183</v>
+        <v>1974.011744030176</v>
       </c>
       <c r="D101">
-        <v>18.82722239639966</v>
+        <v>6.520154314502534</v>
       </c>
       <c r="E101">
-        <v>31.49880673172152</v>
+        <v>25.10899449603562</v>
       </c>
       <c r="F101">
-        <v>1861.286959897904</v>
+        <v>1999.120738526212</v>
       </c>
       <c r="G101">
-        <v>1880.114182294304</v>
+        <v>2005.640892840715</v>
       </c>
       <c r="H101">
-        <v>50.32602912812126</v>
+        <v>31.62914881053825</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -3338,25 +3338,25 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>27.2306502484179</v>
+        <v>20.84512906687161</v>
       </c>
       <c r="C102">
-        <v>1857.018803414601</v>
+        <v>1994.856873097048</v>
       </c>
       <c r="D102">
-        <v>9.576230734165526</v>
+        <v>1.747567696327747</v>
       </c>
       <c r="E102">
-        <v>23.09537887970328</v>
+        <v>10.7840197436667</v>
       </c>
       <c r="F102">
-        <v>1880.114182294304</v>
+        <v>2005.640892840715</v>
       </c>
       <c r="G102">
-        <v>1889.690413028469</v>
+        <v>2007.388460537042</v>
       </c>
       <c r="H102">
-        <v>32.6716096138689</v>
+        <v>12.53158743999438</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -3367,25 +3367,25 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>28.29470350591137</v>
+        <v>11.81792911073736</v>
       </c>
       <c r="C103">
-        <v>1885.313506920512</v>
+        <v>2006.674802207785</v>
       </c>
       <c r="D103">
-        <v>29.68861794832952</v>
+        <v>16.84500471740938</v>
       </c>
       <c r="E103">
-        <v>4.376906107957439</v>
+        <v>0.7136583292569867</v>
       </c>
       <c r="F103">
-        <v>1889.690413028469</v>
+        <v>2007.388460537042</v>
       </c>
       <c r="G103">
-        <v>1919.379030976799</v>
+        <v>2024.233465254452</v>
       </c>
       <c r="H103">
-        <v>34.0655240562869</v>
+        <v>17.55866304666642</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -3396,28 +3396,28 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>57.83652148569991</v>
+        <v>21.15428379100528</v>
       </c>
       <c r="C104">
-        <v>1943.150028406212</v>
+        <v>2027.829085998791</v>
       </c>
       <c r="D104">
-        <v>49.57016111024203</v>
+        <v>14.43461634817849</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1943.150028406212</v>
+        <v>2027.829085998791</v>
       </c>
       <c r="G104">
-        <v>1992.720189516454</v>
+        <v>2042.263702346969</v>
       </c>
       <c r="H104">
-        <v>49.570161110242</v>
+        <v>14.43461634817845</v>
       </c>
       <c r="I104">
-        <v>23.770997429413</v>
+        <v>3.59562074433893</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3425,28 +3425,28 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>7.921971884316611</v>
+        <v>24.18786999413774</v>
       </c>
       <c r="C105">
-        <v>1951.072000290529</v>
+        <v>2052.016955992928</v>
       </c>
       <c r="D105">
-        <v>2.201697324051218</v>
+        <v>13.80094526319105</v>
       </c>
       <c r="E105">
-        <v>41.64818922592531</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1992.720189516454</v>
+        <v>2052.016955992928</v>
       </c>
       <c r="G105">
-        <v>1994.921886840505</v>
+        <v>2065.817901256119</v>
       </c>
       <c r="H105">
-        <v>43.84988654997642</v>
+        <v>13.8009452631909</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>9.753253645959148</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3454,28 +3454,28 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>33.22222326134246</v>
+        <v>18.52254856753467</v>
       </c>
       <c r="C106">
-        <v>1984.294223551871</v>
+        <v>2070.539504560463</v>
       </c>
       <c r="D106">
-        <v>24.63831686516282</v>
+        <v>5.752486819810368</v>
       </c>
       <c r="E106">
-        <v>10.62766328863404</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1994.921886840505</v>
+        <v>2070.539504560463</v>
       </c>
       <c r="G106">
-        <v>2019.560203705668</v>
+        <v>2076.291991380273</v>
       </c>
       <c r="H106">
-        <v>35.26598015379682</v>
+        <v>5.752486819810201</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>4.721603304343716</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3483,28 +3483,28 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>33.89344082635975</v>
+        <v>18.6751315171842</v>
       </c>
       <c r="C107">
-        <v>2018.187664378231</v>
+        <v>2089.214636077647</v>
       </c>
       <c r="D107">
-        <v>18.52229508126037</v>
+        <v>4.824375893645688</v>
       </c>
       <c r="E107">
-        <v>1.372539327437153</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>2019.560203705668</v>
+        <v>2089.214636077647</v>
       </c>
       <c r="G107">
-        <v>2038.082498786928</v>
+        <v>2094.039011971292</v>
       </c>
       <c r="H107">
-        <v>19.89483440869753</v>
+        <v>4.824375893645538</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>12.92264469737393</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3512,28 +3512,28 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>4.811247292891421</v>
+        <v>55.21796966910345</v>
       </c>
       <c r="C108">
-        <v>2022.998911671122</v>
+        <v>2144.43260574675</v>
       </c>
       <c r="D108">
-        <v>11.68698297192047</v>
+        <v>0.4381478684151697</v>
       </c>
       <c r="E108">
-        <v>15.08358711580604</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>2038.082498786928</v>
+        <v>2144.43260574675</v>
       </c>
       <c r="G108">
-        <v>2049.769481758849</v>
+        <v>2144.870753615165</v>
       </c>
       <c r="H108">
-        <v>26.77057008772636</v>
+        <v>0.4381478684149442</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>50.3935937754577</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3541,28 +3541,28 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>29.37833264473178</v>
+        <v>1.985102177457548</v>
       </c>
       <c r="C109">
-        <v>2052.377244315854</v>
+        <v>2146.417707924208</v>
       </c>
       <c r="D109">
-        <v>0.1481567719786827</v>
+        <v>4.278877422192236</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>2052.377244315854</v>
+        <v>2146.417707924208</v>
       </c>
       <c r="G109">
-        <v>2052.525401087833</v>
+        <v>2150.6965853464</v>
       </c>
       <c r="H109">
-        <v>0.1481567719788472</v>
+        <v>4.278877422192181</v>
       </c>
       <c r="I109">
-        <v>2.607762557005572</v>
+        <v>1.546954309042576</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3570,28 +3570,28 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>2.418817362953614</v>
+        <v>10.57750311197008</v>
       </c>
       <c r="C110">
-        <v>2054.796061678808</v>
+        <v>2156.995211036178</v>
       </c>
       <c r="D110">
-        <v>5.852464458189996</v>
+        <v>29.26911950164198</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>2054.796061678808</v>
+        <v>2156.995211036178</v>
       </c>
       <c r="G110">
-        <v>2060.648526136998</v>
+        <v>2186.26433053782</v>
       </c>
       <c r="H110">
-        <v>5.852464458189843</v>
+        <v>29.26911950164185</v>
       </c>
       <c r="I110">
-        <v>2.270660590974785</v>
+        <v>6.298625689777964</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3599,28 +3599,28 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>6.632581682800403</v>
+        <v>4.792442821785618</v>
       </c>
       <c r="C111">
-        <v>2061.428643361608</v>
+        <v>2161.787653857964</v>
       </c>
       <c r="D111">
-        <v>21.04656280307485</v>
+        <v>0.1962318070628342</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>24.47667667985615</v>
       </c>
       <c r="F111">
-        <v>2061.428643361608</v>
+        <v>2186.26433053782</v>
       </c>
       <c r="G111">
-        <v>2082.475206164683</v>
+        <v>2186.460562344882</v>
       </c>
       <c r="H111">
-        <v>21.04656280307472</v>
+        <v>24.67290848691891</v>
       </c>
       <c r="I111">
-        <v>0.7801172246104215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3628,25 +3628,25 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>9.708326286224816</v>
+        <v>15.89749742095055</v>
       </c>
       <c r="C112">
-        <v>2071.136969647833</v>
+        <v>2177.685151278914</v>
       </c>
       <c r="D112">
-        <v>0.4147169304948068</v>
+        <v>44.8609629303464</v>
       </c>
       <c r="E112">
-        <v>11.33823651684997</v>
+        <v>8.775411065968456</v>
       </c>
       <c r="F112">
-        <v>2082.475206164683</v>
+        <v>2186.460562344882</v>
       </c>
       <c r="G112">
-        <v>2082.889923095177</v>
+        <v>2231.321525275229</v>
       </c>
       <c r="H112">
-        <v>11.75295344734468</v>
+        <v>53.63637399631489</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -3657,28 +3657,28 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>83.65542717649947</v>
+        <v>5.4153749439899</v>
       </c>
       <c r="C113">
-        <v>2154.792396824332</v>
+        <v>2183.100526222904</v>
       </c>
       <c r="D113">
-        <v>10.47764242704653</v>
+        <v>3.48248728416212</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>48.22099905232517</v>
       </c>
       <c r="F113">
-        <v>2154.792396824332</v>
+        <v>2231.321525275229</v>
       </c>
       <c r="G113">
-        <v>2165.270039251379</v>
+        <v>2234.804012559391</v>
       </c>
       <c r="H113">
-        <v>10.4776424270467</v>
+        <v>51.70348633648746</v>
       </c>
       <c r="I113">
-        <v>71.90247372915474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3686,28 +3686,28 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>35.66290743795415</v>
+        <v>4.206009025784573</v>
       </c>
       <c r="C114">
-        <v>2190.455304262287</v>
+        <v>2187.306535248688</v>
       </c>
       <c r="D114">
-        <v>4.171650541053542</v>
+        <v>4.694717526470591</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>47.49747731070283</v>
       </c>
       <c r="F114">
-        <v>2190.455304262287</v>
+        <v>2234.804012559391</v>
       </c>
       <c r="G114">
-        <v>2194.62695480334</v>
+        <v>2239.498730085862</v>
       </c>
       <c r="H114">
-        <v>4.171650541053623</v>
+        <v>52.19219483717325</v>
       </c>
       <c r="I114">
-        <v>25.18526501090764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3715,28 +3715,28 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7.262464888425927</v>
+        <v>0.8499796311200161</v>
       </c>
       <c r="C115">
-        <v>2197.717769150712</v>
+        <v>2188.156514879808</v>
       </c>
       <c r="D115">
-        <v>1.002272757353034</v>
+        <v>7.883659944814041</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>51.34221520605342</v>
       </c>
       <c r="F115">
-        <v>2197.717769150712</v>
+        <v>2239.498730085862</v>
       </c>
       <c r="G115">
-        <v>2198.720041908065</v>
+        <v>2247.382390030676</v>
       </c>
       <c r="H115">
-        <v>1.002272757353239</v>
+        <v>59.22587515086752</v>
       </c>
       <c r="I115">
-        <v>3.090814347372088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3744,28 +3744,28 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1.581406830865953</v>
+        <v>20.19641084755635</v>
       </c>
       <c r="C116">
-        <v>2199.299175981578</v>
+        <v>2208.352925727364</v>
       </c>
       <c r="D116">
-        <v>0.45723915891892</v>
+        <v>0.1407471697574348</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>39.02946430331122</v>
       </c>
       <c r="F116">
-        <v>2199.299175981578</v>
+        <v>2247.382390030676</v>
       </c>
       <c r="G116">
-        <v>2199.756415140497</v>
+        <v>2247.523137200433</v>
       </c>
       <c r="H116">
-        <v>0.4572391589190374</v>
+        <v>39.17021147306878</v>
       </c>
       <c r="I116">
-        <v>0.5791340735127051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3773,28 +3773,28 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.845165387344138</v>
+        <v>6.281787075615433</v>
       </c>
       <c r="C117">
-        <v>2201.144341368922</v>
+        <v>2214.63471280298</v>
       </c>
       <c r="D117">
-        <v>8.567224899886327</v>
+        <v>4.148515029743318</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>32.88842439745349</v>
       </c>
       <c r="F117">
-        <v>2201.144341368922</v>
+        <v>2247.523137200433</v>
       </c>
       <c r="G117">
-        <v>2209.711566268808</v>
+        <v>2251.671652230177</v>
       </c>
       <c r="H117">
-        <v>8.567224899886241</v>
+        <v>37.03693942719701</v>
       </c>
       <c r="I117">
-        <v>1.387926228424931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3802,28 +3802,28 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>20.38165931274547</v>
+        <v>2.214627018723967</v>
       </c>
       <c r="C118">
-        <v>2221.526000681667</v>
+        <v>2216.849339821704</v>
       </c>
       <c r="D118">
-        <v>3.751256750671287</v>
+        <v>24.47479567701398</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>34.82231240847295</v>
       </c>
       <c r="F118">
-        <v>2221.526000681667</v>
+        <v>2251.671652230177</v>
       </c>
       <c r="G118">
-        <v>2225.277257432339</v>
+        <v>2276.146447907191</v>
       </c>
       <c r="H118">
-        <v>3.751256750671473</v>
+        <v>59.2971080854868</v>
       </c>
       <c r="I118">
-        <v>11.8144344128591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3831,28 +3831,28 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>8.169108837994553</v>
+        <v>7.279757371857665</v>
       </c>
       <c r="C119">
-        <v>2229.695109519662</v>
+        <v>2224.129097193561</v>
       </c>
       <c r="D119">
-        <v>11.24189719938433</v>
+        <v>6.285956982782139</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>52.01735071362918</v>
       </c>
       <c r="F119">
-        <v>2229.695109519662</v>
+        <v>2276.146447907191</v>
       </c>
       <c r="G119">
-        <v>2240.937006719046</v>
+        <v>2282.432404889973</v>
       </c>
       <c r="H119">
-        <v>11.24189719938431</v>
+        <v>58.30330769641114</v>
       </c>
       <c r="I119">
-        <v>4.417852087322899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3860,28 +3860,28 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>22.10158174426401</v>
+        <v>8.835858598101726</v>
       </c>
       <c r="C120">
-        <v>2251.796691263926</v>
+        <v>2232.964955791663</v>
       </c>
       <c r="D120">
-        <v>1.203906164427288</v>
+        <v>9.257071181096496</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>49.46744909830932</v>
       </c>
       <c r="F120">
-        <v>2251.796691263926</v>
+        <v>2282.432404889973</v>
       </c>
       <c r="G120">
-        <v>2253.000597428353</v>
+        <v>2291.689476071069</v>
       </c>
       <c r="H120">
-        <v>1.203906164427281</v>
+        <v>58.72452027940562</v>
       </c>
       <c r="I120">
-        <v>10.85968454487966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3889,28 +3889,28 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>8.181727458465787</v>
+        <v>3.226734709932098</v>
       </c>
       <c r="C121">
-        <v>2259.978418722392</v>
+        <v>2236.191690501596</v>
       </c>
       <c r="D121">
-        <v>13.93909038993718</v>
+        <v>16.8795667073193</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>55.49778556947331</v>
       </c>
       <c r="F121">
-        <v>2259.978418722392</v>
+        <v>2291.689476071069</v>
       </c>
       <c r="G121">
-        <v>2273.917509112329</v>
+        <v>2308.569042778388</v>
       </c>
       <c r="H121">
-        <v>13.93909038993706</v>
+        <v>72.37735227679241</v>
       </c>
       <c r="I121">
-        <v>6.977821294038677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3918,25 +3918,25 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>9.440274565171196</v>
+        <v>11.02761701333564</v>
       </c>
       <c r="C122">
-        <v>2269.418693287563</v>
+        <v>2247.219307514931</v>
       </c>
       <c r="D122">
-        <v>1.72690130743691</v>
+        <v>5.340617998842931</v>
       </c>
       <c r="E122">
-        <v>4.498815824765643</v>
+        <v>61.34973526345675</v>
       </c>
       <c r="F122">
-        <v>2273.917509112329</v>
+        <v>2308.569042778388</v>
       </c>
       <c r="G122">
-        <v>2275.644410419766</v>
+        <v>2313.909660777231</v>
       </c>
       <c r="H122">
-        <v>6.22571713220259</v>
+        <v>66.6903532622996</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -3947,28 +3947,28 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>27.44373438828727</v>
+        <v>3.170508168845164</v>
       </c>
       <c r="C123">
-        <v>2296.862427675851</v>
+        <v>2250.389815683776</v>
       </c>
       <c r="D123">
-        <v>0.126208192670442</v>
+        <v>31.13016318895275</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>63.51984509345448</v>
       </c>
       <c r="F123">
-        <v>2296.862427675851</v>
+        <v>2313.909660777231</v>
       </c>
       <c r="G123">
-        <v>2296.988635868521</v>
+        <v>2345.039823966184</v>
       </c>
       <c r="H123">
-        <v>0.1262081926702194</v>
+        <v>94.65000828240727</v>
       </c>
       <c r="I123">
-        <v>21.21801725608475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3976,28 +3976,28 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>3.185577834389123</v>
+        <v>109.9207140495979</v>
       </c>
       <c r="C124">
-        <v>2300.04800551024</v>
+        <v>2360.310529733374</v>
       </c>
       <c r="D124">
-        <v>11.84058983284096</v>
+        <v>1.324224252398919</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2300.04800551024</v>
+        <v>2360.310529733374</v>
       </c>
       <c r="G124">
-        <v>2311.888595343081</v>
+        <v>2361.634753985773</v>
       </c>
       <c r="H124">
-        <v>11.84058983284103</v>
+        <v>1.324224252398835</v>
       </c>
       <c r="I124">
-        <v>3.059369641719059</v>
+        <v>15.27070576719052</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4005,28 +4005,28 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.4075098173224378</v>
+        <v>15.31823129375696</v>
       </c>
       <c r="C125">
-        <v>2300.455515327562</v>
+        <v>2375.628761027131</v>
       </c>
       <c r="D125">
-        <v>4.239192530027879</v>
+        <v>16.80602478210528</v>
       </c>
       <c r="E125">
-        <v>11.4330800155185</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>2311.888595343081</v>
+        <v>2375.628761027131</v>
       </c>
       <c r="G125">
-        <v>2316.127787873109</v>
+        <v>2392.434785809236</v>
       </c>
       <c r="H125">
-        <v>15.67227254554655</v>
+        <v>16.8060247821054</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>13.99400704135815</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4034,28 +4034,28 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>2.117990158985356</v>
+        <v>18.86491546225156</v>
       </c>
       <c r="C126">
-        <v>2302.573505486548</v>
+        <v>2394.493676489383</v>
       </c>
       <c r="D126">
-        <v>9.204414668047811</v>
+        <v>24.23185305308387</v>
       </c>
       <c r="E126">
-        <v>13.55428238656123</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2316.127787873109</v>
+        <v>2394.493676489383</v>
       </c>
       <c r="G126">
-        <v>2325.332202541157</v>
+        <v>2418.725529542467</v>
       </c>
       <c r="H126">
-        <v>22.758697054609</v>
+        <v>24.2318530530838</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2.058890680146305</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4063,25 +4063,25 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>10.65576135837242</v>
+        <v>16.00116824324577</v>
       </c>
       <c r="C127">
-        <v>2313.22926684492</v>
+        <v>2410.494844732629</v>
       </c>
       <c r="D127">
-        <v>4.427692672792709</v>
+        <v>18.06316978466544</v>
       </c>
       <c r="E127">
-        <v>12.10293569623673</v>
+        <v>8.23068480983784</v>
       </c>
       <c r="F127">
-        <v>2325.332202541157</v>
+        <v>2418.725529542467</v>
       </c>
       <c r="G127">
-        <v>2329.759895213949</v>
+        <v>2436.788699327132</v>
       </c>
       <c r="H127">
-        <v>16.53062836902927</v>
+        <v>26.2938545945035</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -4092,28 +4092,28 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>5.962081706951285</v>
+        <v>59.84481116552306</v>
       </c>
       <c r="C128">
-        <v>2319.191348551871</v>
+        <v>2470.339655898152</v>
       </c>
       <c r="D128">
-        <v>0.9295796809831846</v>
+        <v>7.929533168131586</v>
       </c>
       <c r="E128">
-        <v>10.56854666207801</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>2329.759895213949</v>
+        <v>2470.339655898152</v>
       </c>
       <c r="G128">
-        <v>2330.689474894933</v>
+        <v>2478.269189066283</v>
       </c>
       <c r="H128">
-        <v>11.49812634306136</v>
+        <v>7.929533168131456</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>33.55095657101947</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4121,28 +4121,28 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.299432182701996</v>
+        <v>28.11128202342015</v>
       </c>
       <c r="C129">
-        <v>2322.490780734573</v>
+        <v>2498.450937921572</v>
       </c>
       <c r="D129">
-        <v>8.764584623260021</v>
+        <v>10.35563148468045</v>
       </c>
       <c r="E129">
-        <v>8.198694160359537</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>2330.689474894933</v>
+        <v>2498.450937921572</v>
       </c>
       <c r="G129">
-        <v>2339.454059518192</v>
+        <v>2508.806569406252</v>
       </c>
       <c r="H129">
-        <v>16.96327878361944</v>
+        <v>10.35563148468054</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>20.18174885528879</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4150,28 +4150,28 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>5.271078080224117</v>
+        <v>12.30517305464631</v>
       </c>
       <c r="C130">
-        <v>2327.761858814797</v>
+        <v>2510.756110976218</v>
       </c>
       <c r="D130">
-        <v>14.09220615080444</v>
+        <v>15.05513290175687</v>
       </c>
       <c r="E130">
-        <v>11.69220070339543</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>2339.454059518192</v>
+        <v>2510.756110976218</v>
       </c>
       <c r="G130">
-        <v>2353.546265668997</v>
+        <v>2525.811243877975</v>
       </c>
       <c r="H130">
-        <v>25.78440685419991</v>
+        <v>15.05513290175668</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1.949541569965731</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4179,25 +4179,25 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1.177947258065478</v>
+        <v>12.7331104635462</v>
       </c>
       <c r="C131">
-        <v>2328.939806072863</v>
+        <v>2523.489221439765</v>
       </c>
       <c r="D131">
-        <v>16.14218079347302</v>
+        <v>1.405741507329564</v>
       </c>
       <c r="E131">
-        <v>24.6064595961343</v>
+        <v>2.322022438210297</v>
       </c>
       <c r="F131">
-        <v>2353.546265668997</v>
+        <v>2525.811243877975</v>
       </c>
       <c r="G131">
-        <v>2369.68844646247</v>
+        <v>2527.216985385304</v>
       </c>
       <c r="H131">
-        <v>40.74864038960732</v>
+        <v>3.727763945539664</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -4208,25 +4208,25 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>21.06531751462554</v>
+        <v>1.17933819582361</v>
       </c>
       <c r="C132">
-        <v>2350.005123587488</v>
+        <v>2524.668559635588</v>
       </c>
       <c r="D132">
-        <v>1.709517206743965</v>
+        <v>0.106565528494938</v>
       </c>
       <c r="E132">
-        <v>19.68332287498197</v>
+        <v>2.548425749715989</v>
       </c>
       <c r="F132">
-        <v>2369.68844646247</v>
+        <v>2527.216985385304</v>
       </c>
       <c r="G132">
-        <v>2371.397963669214</v>
+        <v>2527.323550913799</v>
       </c>
       <c r="H132">
-        <v>21.39284008172581</v>
+        <v>2.654991278211128</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -4237,25 +4237,25 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>5.700337885703001</v>
+        <v>1.796775156972854</v>
       </c>
       <c r="C133">
-        <v>2355.705461473191</v>
+        <v>2526.465334792561</v>
       </c>
       <c r="D133">
-        <v>9.96104200308158</v>
+        <v>53.02395096883914</v>
       </c>
       <c r="E133">
-        <v>15.69250219602282</v>
+        <v>0.8582161212384563</v>
       </c>
       <c r="F133">
-        <v>2371.397963669214</v>
+        <v>2527.323550913799</v>
       </c>
       <c r="G133">
-        <v>2381.359005672296</v>
+        <v>2580.347501882638</v>
       </c>
       <c r="H133">
-        <v>25.65354419910454</v>
+        <v>53.88216709007747</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -4266,25 +4266,25 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>24.783556970846</v>
+        <v>52.65955368821398</v>
       </c>
       <c r="C134">
-        <v>2380.489018444037</v>
+        <v>2579.124888480775</v>
       </c>
       <c r="D134">
-        <v>1.978327064295885</v>
+        <v>25.17301222670879</v>
       </c>
       <c r="E134">
-        <v>0.8699872282586512</v>
+        <v>1.222613401863327</v>
       </c>
       <c r="F134">
-        <v>2381.359005672296</v>
+        <v>2580.347501882638</v>
       </c>
       <c r="G134">
-        <v>2383.337332736592</v>
+        <v>2605.520514109347</v>
       </c>
       <c r="H134">
-        <v>2.848314292554733</v>
+        <v>26.39562562857191</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -4295,28 +4295,28 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7.023347738880022</v>
+        <v>6.514892438364786</v>
       </c>
       <c r="C135">
-        <v>2387.512366182917</v>
+        <v>2585.63978091914</v>
       </c>
       <c r="D135">
-        <v>3.422246891400495</v>
+        <v>1.128618731232191</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>19.88073319020714</v>
       </c>
       <c r="F135">
-        <v>2387.512366182917</v>
+        <v>2605.520514109347</v>
       </c>
       <c r="G135">
-        <v>2390.934613074317</v>
+        <v>2606.649132840579</v>
       </c>
       <c r="H135">
-        <v>3.422246891400391</v>
+        <v>21.00935192143925</v>
       </c>
       <c r="I135">
-        <v>4.175033446325415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4324,25 +4324,25 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.846755383834149</v>
+        <v>12.84453902909348</v>
       </c>
       <c r="C136">
-        <v>2389.359121566751</v>
+        <v>2598.484319948233</v>
       </c>
       <c r="D136">
-        <v>0.6265806846197713</v>
+        <v>14.48613377529288</v>
       </c>
       <c r="E136">
-        <v>1.575491507566312</v>
+        <v>8.164812892345708</v>
       </c>
       <c r="F136">
-        <v>2390.934613074317</v>
+        <v>2606.649132840579</v>
       </c>
       <c r="G136">
-        <v>2391.561193758937</v>
+        <v>2621.135266615872</v>
       </c>
       <c r="H136">
-        <v>2.202072192186279</v>
+        <v>22.65094666763844</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -4353,25 +4353,25 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.7240194181073809</v>
+        <v>17.29373845394357</v>
       </c>
       <c r="C137">
-        <v>2390.083140984858</v>
+        <v>2615.778058402177</v>
       </c>
       <c r="D137">
-        <v>3.30427106867064</v>
+        <v>41.79023488196764</v>
       </c>
       <c r="E137">
-        <v>1.47805277407906</v>
+        <v>5.357208213694776</v>
       </c>
       <c r="F137">
-        <v>2391.561193758937</v>
+        <v>2621.135266615872</v>
       </c>
       <c r="G137">
-        <v>2394.865464827608</v>
+        <v>2662.925501497839</v>
       </c>
       <c r="H137">
-        <v>4.78232384274952</v>
+        <v>47.14744309566231</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -4382,28 +4382,28 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>75.4762306480763</v>
+        <v>11.71959400629954</v>
       </c>
       <c r="C138">
-        <v>2465.559371632934</v>
+        <v>2627.497652408477</v>
       </c>
       <c r="D138">
-        <v>1.585742023208458</v>
+        <v>3.442128100553168</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>35.42784908936255</v>
       </c>
       <c r="F138">
-        <v>2465.559371632934</v>
+        <v>2662.925501497839</v>
       </c>
       <c r="G138">
-        <v>2467.145113656143</v>
+        <v>2666.367629598392</v>
       </c>
       <c r="H138">
-        <v>1.58574202320824</v>
+        <v>38.86997718991552</v>
       </c>
       <c r="I138">
-        <v>70.69390680532661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4411,28 +4411,28 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>16.59340793505084</v>
+        <v>20.49024646677089</v>
       </c>
       <c r="C139">
-        <v>2482.152779567985</v>
+        <v>2647.987898875248</v>
       </c>
       <c r="D139">
-        <v>0.2563175731237219</v>
+        <v>1.133211222214508</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>18.3797307231448</v>
       </c>
       <c r="F139">
-        <v>2482.152779567985</v>
+        <v>2666.367629598392</v>
       </c>
       <c r="G139">
-        <v>2482.409097141109</v>
+        <v>2667.500840820607</v>
       </c>
       <c r="H139">
-        <v>0.2563175731238516</v>
+        <v>19.51294194535922</v>
       </c>
       <c r="I139">
-        <v>15.00766591184265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4440,28 +4440,28 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>17.50588847940285</v>
+        <v>34.67761606855736</v>
       </c>
       <c r="C140">
-        <v>2499.658668047388</v>
+        <v>2682.665514943805</v>
       </c>
       <c r="D140">
-        <v>31.40818759321266</v>
+        <v>0.08411493664860437</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>2499.658668047388</v>
+        <v>2682.665514943805</v>
       </c>
       <c r="G140">
-        <v>2531.066855640601</v>
+        <v>2682.749629880454</v>
       </c>
       <c r="H140">
-        <v>31.40818759321246</v>
+        <v>0.08411493664880254</v>
       </c>
       <c r="I140">
-        <v>17.24957090627913</v>
+        <v>15.16467412319798</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4469,28 +4469,28 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>17.44779404179851</v>
+        <v>70.60551082707522</v>
       </c>
       <c r="C141">
-        <v>2517.106462089187</v>
+        <v>2753.27102577088</v>
       </c>
       <c r="D141">
-        <v>2.347568601389374</v>
+        <v>19.11991643437131</v>
       </c>
       <c r="E141">
-        <v>13.96039355141374</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>2531.066855640601</v>
+        <v>2753.27102577088</v>
       </c>
       <c r="G141">
-        <v>2533.41442424199</v>
+        <v>2772.390942205251</v>
       </c>
       <c r="H141">
-        <v>16.30796215280316</v>
+        <v>19.11991643437113</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>70.52139589042645</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4498,28 +4498,28 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>20.54927647562662</v>
+        <v>13.80172938589099</v>
       </c>
       <c r="C142">
-        <v>2537.655738564814</v>
+        <v>2767.072755156771</v>
       </c>
       <c r="D142">
-        <v>5.138268754212099</v>
+        <v>5.923357474338973</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>5.318187048480013</v>
       </c>
       <c r="F142">
-        <v>2537.655738564814</v>
+        <v>2772.390942205251</v>
       </c>
       <c r="G142">
-        <v>2542.794007319026</v>
+        <v>2778.31429967959</v>
       </c>
       <c r="H142">
-        <v>5.138268754212277</v>
+        <v>11.24154452281891</v>
       </c>
       <c r="I142">
-        <v>4.241314322823655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4527,28 +4527,28 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>46.72617981165178</v>
+        <v>0.253672567220719</v>
       </c>
       <c r="C143">
-        <v>2584.381918376466</v>
+        <v>2767.326427723992</v>
       </c>
       <c r="D143">
-        <v>9.063289901250213</v>
+        <v>2.740713404556943</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>10.98787195559817</v>
       </c>
       <c r="F143">
-        <v>2584.381918376466</v>
+        <v>2778.31429967959</v>
       </c>
       <c r="G143">
-        <v>2593.445208277716</v>
+        <v>2781.055013084147</v>
       </c>
       <c r="H143">
-        <v>9.0632899012503</v>
+        <v>13.72858536015519</v>
       </c>
       <c r="I143">
-        <v>41.58791105743967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4556,28 +4556,28 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>37.59302016346322</v>
+        <v>3.884270799562718</v>
       </c>
       <c r="C144">
-        <v>2621.974938539929</v>
+        <v>2771.210698523555</v>
       </c>
       <c r="D144">
-        <v>0.955012686393036</v>
+        <v>44.27482685511681</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>9.844314560592466</v>
       </c>
       <c r="F144">
-        <v>2621.974938539929</v>
+        <v>2781.055013084147</v>
       </c>
       <c r="G144">
-        <v>2622.929951226322</v>
+        <v>2825.329839939264</v>
       </c>
       <c r="H144">
-        <v>0.9550126863928199</v>
+        <v>54.11914141570924</v>
       </c>
       <c r="I144">
-        <v>28.52973026221298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4585,28 +4585,28 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>37.00439798527268</v>
+        <v>25.1466391338094</v>
       </c>
       <c r="C145">
-        <v>2658.979336525202</v>
+        <v>2796.357337657364</v>
       </c>
       <c r="D145">
-        <v>3.668352138237308</v>
+        <v>35.53203354489649</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>28.97250228189978</v>
       </c>
       <c r="F145">
-        <v>2658.979336525202</v>
+        <v>2825.329839939264</v>
       </c>
       <c r="G145">
-        <v>2662.647688663439</v>
+        <v>2860.86187348416</v>
       </c>
       <c r="H145">
-        <v>3.668352138237424</v>
+        <v>64.5045358267962</v>
       </c>
       <c r="I145">
-        <v>36.04938529887977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4614,28 +4614,28 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>11.12009296140929</v>
+        <v>18.6112859450324</v>
       </c>
       <c r="C146">
-        <v>2670.099429486611</v>
+        <v>2814.968623602396</v>
       </c>
       <c r="D146">
-        <v>7.233511870886238</v>
+        <v>2.456939936779273</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>45.89324988176395</v>
       </c>
       <c r="F146">
-        <v>2670.099429486611</v>
+        <v>2860.86187348416</v>
       </c>
       <c r="G146">
-        <v>2677.332941357497</v>
+        <v>2863.318813420939</v>
       </c>
       <c r="H146">
-        <v>7.233511870886105</v>
+        <v>48.35018981854319</v>
       </c>
       <c r="I146">
-        <v>7.451740823171804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4643,28 +4643,28 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>39.63494867266999</v>
+        <v>55.0130330954423</v>
       </c>
       <c r="C147">
-        <v>2709.734378159281</v>
+        <v>2869.981656697838</v>
       </c>
       <c r="D147">
-        <v>3.937771171151128</v>
+        <v>2.519588899333976</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>2709.734378159281</v>
+        <v>2869.981656697838</v>
       </c>
       <c r="G147">
-        <v>2713.672149330432</v>
+        <v>2872.501245597172</v>
       </c>
       <c r="H147">
-        <v>3.937771171151326</v>
+        <v>2.519588899333939</v>
       </c>
       <c r="I147">
-        <v>32.4014368017838</v>
+        <v>6.662843276898911</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4672,28 +4672,28 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>25.67338886630066</v>
+        <v>2.526275092762461</v>
       </c>
       <c r="C148">
-        <v>2735.407767025582</v>
+        <v>2872.507931790601</v>
       </c>
       <c r="D148">
-        <v>30.4070199512356</v>
+        <v>22.018356266491</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>2735.407767025582</v>
+        <v>2872.507931790601</v>
       </c>
       <c r="G148">
-        <v>2765.814786976817</v>
+        <v>2894.526288057092</v>
       </c>
       <c r="H148">
-        <v>30.40701995123572</v>
+        <v>22.01835626649108</v>
       </c>
       <c r="I148">
-        <v>21.73561769514936</v>
+        <v>0.00668619342832244</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4701,28 +4701,28 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3.020723229705534</v>
+        <v>39.84468148191034</v>
       </c>
       <c r="C149">
-        <v>2738.428490255287</v>
+        <v>2912.352613272511</v>
       </c>
       <c r="D149">
-        <v>0.9507421139859544</v>
+        <v>8.350104009849572</v>
       </c>
       <c r="E149">
-        <v>27.38629672153002</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>2765.814786976817</v>
+        <v>2912.352613272511</v>
       </c>
       <c r="G149">
-        <v>2766.765529090803</v>
+        <v>2920.70271728236</v>
       </c>
       <c r="H149">
-        <v>28.33703883551607</v>
+        <v>8.350104009849474</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>17.82632521541927</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4730,28 +4730,28 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>2.029310192259009</v>
+        <v>14.99503043309262</v>
       </c>
       <c r="C150">
-        <v>2740.457800447546</v>
+        <v>2927.347643705604</v>
       </c>
       <c r="D150">
-        <v>10.11536897475196</v>
+        <v>0.4742924838184329</v>
       </c>
       <c r="E150">
-        <v>26.30772864325718</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>2766.765529090803</v>
+        <v>2927.347643705604</v>
       </c>
       <c r="G150">
-        <v>2776.880898065555</v>
+        <v>2927.821936189422</v>
       </c>
       <c r="H150">
-        <v>36.42309761800925</v>
+        <v>0.4742924838183171</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>6.644926423243305</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4759,28 +4759,28 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1.729902831194222</v>
+        <v>6.178283662184496</v>
       </c>
       <c r="C151">
-        <v>2742.18770327874</v>
+        <v>2933.525927367788</v>
       </c>
       <c r="D151">
-        <v>3.109585437360934</v>
+        <v>14.41374738292686</v>
       </c>
       <c r="E151">
-        <v>34.69319478681518</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>2776.880898065555</v>
+        <v>2933.525927367788</v>
       </c>
       <c r="G151">
-        <v>2779.990483502917</v>
+        <v>2947.939674750715</v>
       </c>
       <c r="H151">
-        <v>37.80278022417633</v>
+        <v>14.41374738292689</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>5.703991178366323</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4788,25 +4788,25 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>3.972389678453771</v>
+        <v>2.454349671172244</v>
       </c>
       <c r="C152">
-        <v>2746.160092957194</v>
+        <v>2935.980277038961</v>
       </c>
       <c r="D152">
-        <v>6.232419421878832</v>
+        <v>1.388601382537346</v>
       </c>
       <c r="E152">
-        <v>33.83039054572237</v>
+        <v>11.95939771175472</v>
       </c>
       <c r="F152">
-        <v>2779.990483502917</v>
+        <v>2947.939674750715</v>
       </c>
       <c r="G152">
-        <v>2786.222902924796</v>
+        <v>2949.328276133253</v>
       </c>
       <c r="H152">
-        <v>40.06280996760142</v>
+        <v>13.34799909429194</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -4817,25 +4817,25 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>6.52659812285736</v>
+        <v>8.909497851283662</v>
       </c>
       <c r="C153">
-        <v>2752.686691080051</v>
+        <v>2944.889774890244</v>
       </c>
       <c r="D153">
-        <v>3.468157908137481</v>
+        <v>28.28558639171338</v>
       </c>
       <c r="E153">
-        <v>33.53621184474423</v>
+        <v>4.438501243008432</v>
       </c>
       <c r="F153">
-        <v>2786.222902924796</v>
+        <v>2949.328276133253</v>
       </c>
       <c r="G153">
-        <v>2789.691060832933</v>
+        <v>2977.613862524966</v>
       </c>
       <c r="H153">
-        <v>37.00436975288176</v>
+        <v>32.72408763472185</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -4846,25 +4846,25 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>21.41148948167795</v>
+        <v>26.33745435255737</v>
       </c>
       <c r="C154">
-        <v>2774.098180561729</v>
+        <v>2971.227229242802</v>
       </c>
       <c r="D154">
-        <v>0.03758003661501373</v>
+        <v>53.18647132112003</v>
       </c>
       <c r="E154">
-        <v>15.59288027120374</v>
+        <v>6.386633282164439</v>
       </c>
       <c r="F154">
-        <v>2789.691060832933</v>
+        <v>2977.613862524966</v>
       </c>
       <c r="G154">
-        <v>2789.728640869548</v>
+        <v>3030.800333846086</v>
       </c>
       <c r="H154">
-        <v>15.63046030781879</v>
+        <v>59.57310460328426</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -4875,28 +4875,28 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>5.459459095884639</v>
+        <v>76.32169661547648</v>
       </c>
       <c r="C155">
-        <v>2779.557639657614</v>
+        <v>3047.548925858278</v>
       </c>
       <c r="D155">
-        <v>1.707183633568005</v>
+        <v>15.70096319785242</v>
       </c>
       <c r="E155">
-        <v>10.17100121193425</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>2789.728640869548</v>
+        <v>3047.548925858278</v>
       </c>
       <c r="G155">
-        <v>2791.435824503116</v>
+        <v>3063.249889056131</v>
       </c>
       <c r="H155">
-        <v>11.87818484550235</v>
+        <v>15.70096319785262</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>16.74859201219215</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -4904,28 +4904,28 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>35.05187070844088</v>
+        <v>30.0116713079437</v>
       </c>
       <c r="C156">
-        <v>2814.609510366055</v>
+        <v>3077.560597166222</v>
       </c>
       <c r="D156">
-        <v>1.84623711381025</v>
+        <v>28.17984208354899</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
-        <v>2814.609510366055</v>
+        <v>3077.560597166222</v>
       </c>
       <c r="G156">
-        <v>2816.455747479865</v>
+        <v>3105.740439249771</v>
       </c>
       <c r="H156">
-        <v>1.846237113810275</v>
+        <v>28.17984208354892</v>
       </c>
       <c r="I156">
-        <v>23.17368586293833</v>
+        <v>14.31070811009113</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -4933,28 +4933,28 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>5.114311519282717</v>
+        <v>1.239835386649073</v>
       </c>
       <c r="C157">
-        <v>2819.723821885337</v>
+        <v>3078.800432552871</v>
       </c>
       <c r="D157">
-        <v>47.01814609095172</v>
+        <v>23.78484343141776</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>26.94000669689967</v>
       </c>
       <c r="F157">
-        <v>2819.723821885337</v>
+        <v>3105.740439249771</v>
       </c>
       <c r="G157">
-        <v>2866.741967976289</v>
+        <v>3129.525282681188</v>
       </c>
       <c r="H157">
-        <v>47.01814609095163</v>
+        <v>50.72485012831748</v>
       </c>
       <c r="I157">
-        <v>3.268074405472362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -4962,25 +4962,25 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>44.73318580505239</v>
+        <v>26.92503193035591</v>
       </c>
       <c r="C158">
-        <v>2864.45700769039</v>
+        <v>3105.725464483227</v>
       </c>
       <c r="D158">
-        <v>14.6369338361492</v>
+        <v>40.00382747140199</v>
       </c>
       <c r="E158">
-        <v>2.28496028589916</v>
+        <v>23.79981819796149</v>
       </c>
       <c r="F158">
-        <v>2866.741967976289</v>
+        <v>3129.525282681188</v>
       </c>
       <c r="G158">
-        <v>2881.378901812438</v>
+        <v>3169.52911015259</v>
       </c>
       <c r="H158">
-        <v>16.92189412204834</v>
+        <v>63.8036456693635</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -4991,28 +4991,28 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>44.66260961215249</v>
+        <v>18.54770727545795</v>
       </c>
       <c r="C159">
-        <v>2909.119617302542</v>
+        <v>3124.273171758685</v>
       </c>
       <c r="D159">
-        <v>2.064493294982995</v>
+        <v>0.6275018594275819</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>45.25593839390558</v>
       </c>
       <c r="F159">
-        <v>2909.119617302542</v>
+        <v>3169.52911015259</v>
       </c>
       <c r="G159">
-        <v>2911.184110597525</v>
+        <v>3170.156612012018</v>
       </c>
       <c r="H159">
-        <v>2.064493294983095</v>
+        <v>45.88344025333299</v>
       </c>
       <c r="I159">
-        <v>27.74071549010432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5020,28 +5020,28 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>23.20003136383791</v>
+        <v>4.437170693131566</v>
       </c>
       <c r="C160">
-        <v>2932.31964866638</v>
+        <v>3128.710342451816</v>
       </c>
       <c r="D160">
-        <v>15.87134891126528</v>
+        <v>29.4389945117196</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>41.44626956020147</v>
       </c>
       <c r="F160">
-        <v>2932.31964866638</v>
+        <v>3170.156612012018</v>
       </c>
       <c r="G160">
-        <v>2948.190997577645</v>
+        <v>3199.595606523737</v>
       </c>
       <c r="H160">
-        <v>15.87134891126516</v>
+        <v>70.88526407192103</v>
       </c>
       <c r="I160">
-        <v>21.13553806885466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5049,25 +5049,25 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>7.307344466186145</v>
+        <v>5.017577517945668</v>
       </c>
       <c r="C161">
-        <v>2939.626993132566</v>
+        <v>3133.727919969762</v>
       </c>
       <c r="D161">
-        <v>22.20419019652139</v>
+        <v>21.09831674924498</v>
       </c>
       <c r="E161">
-        <v>8.564004445078808</v>
+        <v>65.86768655397555</v>
       </c>
       <c r="F161">
-        <v>2948.190997577645</v>
+        <v>3199.595606523737</v>
       </c>
       <c r="G161">
-        <v>2970.395187774167</v>
+        <v>3220.693923272982</v>
       </c>
       <c r="H161">
-        <v>30.76819464160008</v>
+        <v>86.96600330322053</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5078,25 +5078,25 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>8.333347035112237</v>
+        <v>5.547586079799452</v>
       </c>
       <c r="C162">
-        <v>2947.960340167679</v>
+        <v>3139.275506049561</v>
       </c>
       <c r="D162">
-        <v>6.310074729925338</v>
+        <v>19.97080492322975</v>
       </c>
       <c r="E162">
-        <v>22.43484760648789</v>
+        <v>81.41841722342087</v>
       </c>
       <c r="F162">
-        <v>2970.395187774167</v>
+        <v>3220.693923272982</v>
       </c>
       <c r="G162">
-        <v>2976.705262504092</v>
+        <v>3240.664728196212</v>
       </c>
       <c r="H162">
-        <v>28.74492233641331</v>
+        <v>101.3892221466508</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5107,25 +5107,25 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>5.495806949003832</v>
+        <v>1.786290489608398</v>
       </c>
       <c r="C163">
-        <v>2953.456147116683</v>
+        <v>3141.06179653917</v>
       </c>
       <c r="D163">
-        <v>1.604217473804825</v>
+        <v>0.27782724142604</v>
       </c>
       <c r="E163">
-        <v>23.24911538740935</v>
+        <v>99.60293165704252</v>
       </c>
       <c r="F163">
-        <v>2976.705262504092</v>
+        <v>3240.664728196212</v>
       </c>
       <c r="G163">
-        <v>2978.309479977897</v>
+        <v>3240.942555437638</v>
       </c>
       <c r="H163">
-        <v>24.85333286121431</v>
+        <v>99.88075889846868</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5136,28 +5136,28 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>49.2196814067463</v>
+        <v>3.769970017773725</v>
       </c>
       <c r="C164">
-        <v>3002.675828523429</v>
+        <v>3144.831766556943</v>
       </c>
       <c r="D164">
-        <v>0.1151166600294695</v>
+        <v>2.760597531078071</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>96.11078888069505</v>
       </c>
       <c r="F164">
-        <v>3002.675828523429</v>
+        <v>3240.942555437638</v>
       </c>
       <c r="G164">
-        <v>3002.790945183458</v>
+        <v>3243.703152968716</v>
       </c>
       <c r="H164">
-        <v>0.1151166600293436</v>
+        <v>98.87138641177307</v>
       </c>
       <c r="I164">
-        <v>24.36634854553222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5165,28 +5165,28 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>24.89266485304054</v>
+        <v>39.7000166459466</v>
       </c>
       <c r="C165">
-        <v>3027.56849337647</v>
+        <v>3184.53178320289</v>
       </c>
       <c r="D165">
-        <v>33.82535805886936</v>
+        <v>27.22737995517867</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>59.17136976582651</v>
       </c>
       <c r="F165">
-        <v>3027.56849337647</v>
+        <v>3243.703152968716</v>
       </c>
       <c r="G165">
-        <v>3061.393851435339</v>
+        <v>3270.930532923895</v>
       </c>
       <c r="H165">
-        <v>33.82535805886937</v>
+        <v>86.39874972100506</v>
       </c>
       <c r="I165">
-        <v>24.77754819301117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5194,25 +5194,25 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>5.830777238458193</v>
+        <v>7.680006658064096</v>
       </c>
       <c r="C166">
-        <v>3033.399270614928</v>
+        <v>3192.211789860954</v>
       </c>
       <c r="D166">
-        <v>5.394424189661665</v>
+        <v>27.08137745655177</v>
       </c>
       <c r="E166">
-        <v>27.9945808204111</v>
+        <v>78.71874306294103</v>
       </c>
       <c r="F166">
-        <v>3061.393851435339</v>
+        <v>3270.930532923895</v>
       </c>
       <c r="G166">
-        <v>3066.788275625001</v>
+        <v>3298.011910380447</v>
       </c>
       <c r="H166">
-        <v>33.38900501007265</v>
+        <v>105.8001205194928</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -5223,25 +5223,25 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>23.63674078904908</v>
+        <v>0.760314787226968</v>
       </c>
       <c r="C167">
-        <v>3057.036011403977</v>
+        <v>3192.972104648181</v>
       </c>
       <c r="D167">
-        <v>8.331518799258724</v>
+        <v>6.117005525180862</v>
       </c>
       <c r="E167">
-        <v>9.752264221023779</v>
+        <v>105.0398057322659</v>
       </c>
       <c r="F167">
-        <v>3066.788275625001</v>
+        <v>3298.011910380447</v>
       </c>
       <c r="G167">
-        <v>3075.119794424259</v>
+        <v>3304.128915905628</v>
       </c>
       <c r="H167">
-        <v>18.08378302028268</v>
+        <v>111.1568112574469</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -5252,28 +5252,28 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>31.46837088434</v>
+        <v>1.26337095989562</v>
       </c>
       <c r="C168">
-        <v>3088.504382288317</v>
+        <v>3194.235475608077</v>
       </c>
       <c r="D168">
-        <v>3.04314647901544</v>
+        <v>4.067204751218554</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>109.893440297551</v>
       </c>
       <c r="F168">
-        <v>3088.504382288317</v>
+        <v>3304.128915905628</v>
       </c>
       <c r="G168">
-        <v>3091.547528767332</v>
+        <v>3308.196120656846</v>
       </c>
       <c r="H168">
-        <v>3.043146479015377</v>
+        <v>113.9606450487695</v>
       </c>
       <c r="I168">
-        <v>13.38458786405727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5281,28 +5281,28 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>23.31109392677718</v>
+        <v>6.199272432847572</v>
       </c>
       <c r="C169">
-        <v>3111.815476215094</v>
+        <v>3200.434748040924</v>
       </c>
       <c r="D169">
-        <v>14.06291539077027</v>
+        <v>2.595043976543145</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>107.761372615922</v>
       </c>
       <c r="F169">
-        <v>3111.815476215094</v>
+        <v>3308.196120656846</v>
       </c>
       <c r="G169">
-        <v>3125.878391605864</v>
+        <v>3310.79116463339</v>
       </c>
       <c r="H169">
-        <v>14.06291539077029</v>
+        <v>110.3564165924654</v>
       </c>
       <c r="I169">
-        <v>20.2679474477618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5310,25 +5310,25 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7.993309343426736</v>
+        <v>6.288754705086317</v>
       </c>
       <c r="C170">
-        <v>3119.80878555852</v>
+        <v>3206.723502746011</v>
       </c>
       <c r="D170">
-        <v>4.556954517300333</v>
+        <v>27.03219352339883</v>
       </c>
       <c r="E170">
-        <v>6.069606047343768</v>
+        <v>104.067661887379</v>
       </c>
       <c r="F170">
-        <v>3125.878391605864</v>
+        <v>3310.79116463339</v>
       </c>
       <c r="G170">
-        <v>3130.435346123164</v>
+        <v>3337.823358156788</v>
       </c>
       <c r="H170">
-        <v>10.62656056464402</v>
+        <v>131.0998554107778</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -5339,28 +5339,28 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>11.80426753969646</v>
+        <v>1.04505989064246</v>
       </c>
       <c r="C171">
-        <v>3131.613053098217</v>
+        <v>3207.768562636653</v>
       </c>
       <c r="D171">
-        <v>1.83443601380532</v>
+        <v>8.315845263206315</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>130.0547955201355</v>
       </c>
       <c r="F171">
-        <v>3131.613053098217</v>
+        <v>3337.823358156788</v>
       </c>
       <c r="G171">
-        <v>3133.447489112022</v>
+        <v>3346.139203419995</v>
       </c>
       <c r="H171">
-        <v>1.834436013805316</v>
+        <v>138.370640783342</v>
       </c>
       <c r="I171">
-        <v>1.177706975052388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -5368,28 +5368,28 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>41.78873939143394</v>
+        <v>47.7011064927741</v>
       </c>
       <c r="C172">
-        <v>3173.401792489651</v>
+        <v>3255.469669129427</v>
       </c>
       <c r="D172">
-        <v>46.1416963138166</v>
+        <v>24.5939496393553</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>90.66953429056775</v>
       </c>
       <c r="F172">
-        <v>3173.401792489651</v>
+        <v>3346.139203419995</v>
       </c>
       <c r="G172">
-        <v>3219.543488803467</v>
+        <v>3370.73315305935</v>
       </c>
       <c r="H172">
-        <v>46.14169631381674</v>
+        <v>115.263483929923</v>
       </c>
       <c r="I172">
-        <v>39.95430337762855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -5397,25 +5397,25 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>3.788972561343883</v>
+        <v>7.538139063177372</v>
       </c>
       <c r="C173">
-        <v>3177.190765050995</v>
+        <v>3263.007808192604</v>
       </c>
       <c r="D173">
-        <v>7.625280924345222</v>
+        <v>5.974970573822954</v>
       </c>
       <c r="E173">
-        <v>42.35272375247268</v>
+        <v>107.7253448667457</v>
       </c>
       <c r="F173">
-        <v>3219.543488803467</v>
+        <v>3370.73315305935</v>
       </c>
       <c r="G173">
-        <v>3227.168769727813</v>
+        <v>3376.708123633173</v>
       </c>
       <c r="H173">
-        <v>49.97800467681782</v>
+        <v>113.7003154405688</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -5426,25 +5426,25 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2.57411274678592</v>
+        <v>24.19110746370484</v>
       </c>
       <c r="C174">
-        <v>3179.764877797781</v>
+        <v>3287.198915656309</v>
       </c>
       <c r="D174">
-        <v>3.349820623399333</v>
+        <v>0.6397181647336498</v>
       </c>
       <c r="E174">
-        <v>47.40389193003193</v>
+        <v>89.50920797686422</v>
       </c>
       <c r="F174">
-        <v>3227.168769727813</v>
+        <v>3376.708123633173</v>
       </c>
       <c r="G174">
-        <v>3230.518590351212</v>
+        <v>3377.347841797907</v>
       </c>
       <c r="H174">
-        <v>50.75371255343134</v>
+        <v>90.14892614159771</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -5455,25 +5455,25 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>39.23479748227906</v>
+        <v>68.33449620456962</v>
       </c>
       <c r="C175">
-        <v>3218.99967528006</v>
+        <v>3355.533411860878</v>
       </c>
       <c r="D175">
-        <v>2.852936602606693</v>
+        <v>10.17565898062909</v>
       </c>
       <c r="E175">
-        <v>11.51891507115215</v>
+        <v>21.81442993702831</v>
       </c>
       <c r="F175">
-        <v>3230.518590351212</v>
+        <v>3377.347841797907</v>
       </c>
       <c r="G175">
-        <v>3233.371526953819</v>
+        <v>3387.523500778536</v>
       </c>
       <c r="H175">
-        <v>14.37185167375901</v>
+        <v>31.99008891765743</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -5484,28 +5484,28 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>82.17469085205181</v>
+        <v>6.802045615989089</v>
       </c>
       <c r="C176">
-        <v>3301.174366132112</v>
+        <v>3362.335457476868</v>
       </c>
       <c r="D176">
-        <v>6.875391730228515</v>
+        <v>3.884925060029479</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>25.18804330166813</v>
       </c>
       <c r="F176">
-        <v>3301.174366132112</v>
+        <v>3387.523500778536</v>
       </c>
       <c r="G176">
-        <v>3308.04975786234</v>
+        <v>3391.408425838566</v>
       </c>
       <c r="H176">
-        <v>6.87539173022833</v>
+        <v>29.0729683616978</v>
       </c>
       <c r="I176">
-        <v>67.80283917829274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -5513,28 +5513,28 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>12.56489958830614</v>
+        <v>5.310284951538254</v>
       </c>
       <c r="C177">
-        <v>3313.739265720418</v>
+        <v>3367.645742428406</v>
       </c>
       <c r="D177">
-        <v>15.50848500866504</v>
+        <v>3.779745178688769</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>23.76268341015975</v>
       </c>
       <c r="F177">
-        <v>3313.739265720418</v>
+        <v>3391.408425838566</v>
       </c>
       <c r="G177">
-        <v>3329.247750729083</v>
+        <v>3395.188171017254</v>
       </c>
       <c r="H177">
-        <v>15.50848500866505</v>
+        <v>27.54242858884845</v>
       </c>
       <c r="I177">
-        <v>5.689507858077832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -5542,28 +5542,28 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.984986611629799</v>
+        <v>30.35901283429315</v>
       </c>
       <c r="C178">
-        <v>3315.724252332047</v>
+        <v>3398.004755262699</v>
       </c>
       <c r="D178">
-        <v>28.72267248237348</v>
+        <v>28.47039883246467</v>
       </c>
       <c r="E178">
-        <v>13.52349839703538</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>3329.247750729083</v>
+        <v>3398.004755262699</v>
       </c>
       <c r="G178">
-        <v>3357.970423211456</v>
+        <v>3426.475154095163</v>
       </c>
       <c r="H178">
-        <v>42.24617087940896</v>
+        <v>28.47039883246453</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2.816584245444574</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -5571,25 +5571,25 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>26.37643888686398</v>
+        <v>8.419558860397219</v>
       </c>
       <c r="C179">
-        <v>3342.100691218911</v>
+        <v>3406.424314123096</v>
       </c>
       <c r="D179">
-        <v>3.004369694546064</v>
+        <v>13.812064681074</v>
       </c>
       <c r="E179">
-        <v>15.86973199254498</v>
+        <v>20.05083997206748</v>
       </c>
       <c r="F179">
-        <v>3357.970423211456</v>
+        <v>3426.475154095163</v>
       </c>
       <c r="G179">
-        <v>3360.974792906002</v>
+        <v>3440.287218776237</v>
       </c>
       <c r="H179">
-        <v>18.87410168709084</v>
+        <v>33.86290465314141</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -5600,28 +5600,28 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>2.632315944165169</v>
+        <v>60.13507674742782</v>
       </c>
       <c r="C180">
-        <v>3344.733007163077</v>
+        <v>3466.559390870524</v>
       </c>
       <c r="D180">
-        <v>10.43306625594083</v>
+        <v>8.159190633836014</v>
       </c>
       <c r="E180">
-        <v>16.24178574292546</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>3360.974792906002</v>
+        <v>3466.559390870524</v>
       </c>
       <c r="G180">
-        <v>3371.407859161943</v>
+        <v>3474.718581504359</v>
       </c>
       <c r="H180">
-        <v>26.67485199886642</v>
+        <v>8.159190633835806</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>26.27217209428636</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -5629,28 +5629,28 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>35.51260110167835</v>
+        <v>18.65257248123313</v>
       </c>
       <c r="C181">
-        <v>3380.245608264755</v>
+        <v>3485.211963351757</v>
       </c>
       <c r="D181">
-        <v>6.912796768074966</v>
+        <v>17.08097853225451</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
       <c r="F181">
-        <v>3380.245608264755</v>
+        <v>3485.211963351757</v>
       </c>
       <c r="G181">
-        <v>3387.15840503283</v>
+        <v>3502.292941884011</v>
       </c>
       <c r="H181">
-        <v>6.912796768075168</v>
+        <v>17.08097853225445</v>
       </c>
       <c r="I181">
-        <v>8.837749102811813</v>
+        <v>10.49338184739736</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -5658,28 +5658,28 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>13.49341558105136</v>
+        <v>3.546399307386011</v>
       </c>
       <c r="C182">
-        <v>3393.739023845807</v>
+        <v>3488.758362659143</v>
       </c>
       <c r="D182">
-        <v>0.2956732000857913</v>
+        <v>2.438790183804357</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>13.53457922486859</v>
       </c>
       <c r="F182">
-        <v>3393.739023845807</v>
+        <v>3502.292941884011</v>
       </c>
       <c r="G182">
-        <v>3394.034697045892</v>
+        <v>3504.731732067816</v>
       </c>
       <c r="H182">
-        <v>0.2956732000857301</v>
+        <v>15.97336940867308</v>
       </c>
       <c r="I182">
-        <v>6.580618812976354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -5687,28 +5687,28 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>17.92679611156063</v>
+        <v>9.186352408597383</v>
       </c>
       <c r="C183">
-        <v>3411.665819957367</v>
+        <v>3497.94471506774</v>
       </c>
       <c r="D183">
-        <v>7.971783232439337</v>
+        <v>0.4367349040840336</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>6.787017000075593</v>
       </c>
       <c r="F183">
-        <v>3411.665819957367</v>
+        <v>3504.731732067816</v>
       </c>
       <c r="G183">
-        <v>3419.637603189807</v>
+        <v>3505.1684669719</v>
       </c>
       <c r="H183">
-        <v>7.97178323243952</v>
+        <v>7.223751904159599</v>
       </c>
       <c r="I183">
-        <v>17.6311229114749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -5716,28 +5716,28 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>70.58947378947994</v>
+        <v>13.45093097614883</v>
       </c>
       <c r="C184">
-        <v>3482.255293746847</v>
+        <v>3511.395646043889</v>
       </c>
       <c r="D184">
-        <v>10.57701201069225</v>
+        <v>9.228227287097452</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>3482.255293746847</v>
+        <v>3511.395646043889</v>
       </c>
       <c r="G184">
-        <v>3492.832305757539</v>
+        <v>3520.623873330986</v>
       </c>
       <c r="H184">
-        <v>10.57701201069221</v>
+        <v>9.228227287097525</v>
       </c>
       <c r="I184">
-        <v>62.61769055704053</v>
+        <v>6.227179071989212</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -5745,28 +5745,28 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>11.79247583024974</v>
+        <v>46.03908917300038</v>
       </c>
       <c r="C185">
-        <v>3494.047769577097</v>
+        <v>3557.434735216889</v>
       </c>
       <c r="D185">
-        <v>2.867106983100941</v>
+        <v>4.677817440574763</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>3494.047769577097</v>
+        <v>3557.434735216889</v>
       </c>
       <c r="G185">
-        <v>3496.914876560198</v>
+        <v>3562.112552657464</v>
       </c>
       <c r="H185">
-        <v>2.867106983101166</v>
+        <v>4.677817440574927</v>
       </c>
       <c r="I185">
-        <v>1.215463819557499</v>
+        <v>36.8108618859028</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -5774,28 +5774,28 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>1.383184883957789</v>
+        <v>39.09601569052768</v>
       </c>
       <c r="C186">
-        <v>3495.430954461055</v>
+        <v>3596.530750907417</v>
       </c>
       <c r="D186">
-        <v>7.972239097095607</v>
+        <v>7.46341866261368</v>
       </c>
       <c r="E186">
-        <v>1.483922099143456</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>3496.914876560198</v>
+        <v>3596.530750907417</v>
       </c>
       <c r="G186">
-        <v>3504.887115657294</v>
+        <v>3603.99416957003</v>
       </c>
       <c r="H186">
-        <v>9.456161196239009</v>
+        <v>7.463418662613549</v>
       </c>
       <c r="I186">
-        <v>0</v>
+        <v>34.41819824995264</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -5803,28 +5803,28 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>34.59597876894657</v>
+        <v>4.229252930753709</v>
       </c>
       <c r="C187">
-        <v>3530.026933230001</v>
+        <v>3600.760003838171</v>
       </c>
       <c r="D187">
-        <v>8.811493220126245</v>
+        <v>102.3197702056194</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>3.234165731859775</v>
       </c>
       <c r="F187">
-        <v>3530.026933230001</v>
+        <v>3603.99416957003</v>
       </c>
       <c r="G187">
-        <v>3538.838426450127</v>
+        <v>3706.31393977565</v>
       </c>
       <c r="H187">
-        <v>8.811493220126067</v>
+        <v>105.5539359374793</v>
       </c>
       <c r="I187">
-        <v>25.13981757270767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -5832,28 +5832,28 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>12.24557401169026</v>
+        <v>21.91153537884579</v>
       </c>
       <c r="C188">
-        <v>3542.272507241692</v>
+        <v>3622.671539217016</v>
       </c>
       <c r="D188">
-        <v>2.151445706670242</v>
+        <v>11.14861081706597</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>83.64240055863365</v>
       </c>
       <c r="F188">
-        <v>3542.272507241692</v>
+        <v>3706.31393977565</v>
       </c>
       <c r="G188">
-        <v>3544.423952948362</v>
+        <v>3717.462550592716</v>
       </c>
       <c r="H188">
-        <v>2.151445706670074</v>
+        <v>94.79101137569978</v>
       </c>
       <c r="I188">
-        <v>3.434080791564156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -5861,28 +5861,28 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>22.88182600452356</v>
+        <v>2.691474635462764</v>
       </c>
       <c r="C189">
-        <v>3565.154333246215</v>
+        <v>3625.363013852479</v>
       </c>
       <c r="D189">
-        <v>7.422483346507414</v>
+        <v>2.925019245608828</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>92.099536740237</v>
       </c>
       <c r="F189">
-        <v>3565.154333246215</v>
+        <v>3717.462550592716</v>
       </c>
       <c r="G189">
-        <v>3572.576816592722</v>
+        <v>3720.387569838325</v>
       </c>
       <c r="H189">
-        <v>7.422483346507306</v>
+        <v>95.02455598584584</v>
       </c>
       <c r="I189">
-        <v>20.73038029785357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5890,28 +5890,28 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>21.81067896442095</v>
+        <v>24.21068708589519</v>
       </c>
       <c r="C190">
-        <v>3586.965012210636</v>
+        <v>3649.573700938374</v>
       </c>
       <c r="D190">
-        <v>4.093686921253186</v>
+        <v>37.83169226049294</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>70.81386889995065</v>
       </c>
       <c r="F190">
-        <v>3586.965012210636</v>
+        <v>3720.387569838325</v>
       </c>
       <c r="G190">
-        <v>3591.058699131889</v>
+        <v>3758.219262098818</v>
       </c>
       <c r="H190">
-        <v>4.093686921253266</v>
+        <v>108.6455611604438</v>
       </c>
       <c r="I190">
-        <v>14.38819561791342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -5919,28 +5919,28 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>51.65040614330083</v>
+        <v>23.60747843728301</v>
       </c>
       <c r="C191">
-        <v>3638.615418353937</v>
+        <v>3673.181179375657</v>
       </c>
       <c r="D191">
-        <v>1.2593297352829</v>
+        <v>24.26137919622309</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>85.03808272316064</v>
       </c>
       <c r="F191">
-        <v>3638.615418353937</v>
+        <v>3758.219262098818</v>
       </c>
       <c r="G191">
-        <v>3639.874748089219</v>
+        <v>3782.480641295041</v>
       </c>
       <c r="H191">
-        <v>1.25932973528279</v>
+        <v>109.2994619193837</v>
       </c>
       <c r="I191">
-        <v>47.55671922204738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -5948,28 +5948,28 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>21.84907231806964</v>
+        <v>22.17538574856659</v>
       </c>
       <c r="C192">
-        <v>3660.464490672006</v>
+        <v>3695.356565124224</v>
       </c>
       <c r="D192">
-        <v>8.496497416257208</v>
+        <v>15.09914527868799</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>87.12407617081726</v>
       </c>
       <c r="F192">
-        <v>3660.464490672006</v>
+        <v>3782.480641295041</v>
       </c>
       <c r="G192">
-        <v>3668.960988088264</v>
+        <v>3797.579786573729</v>
       </c>
       <c r="H192">
-        <v>8.496497416257171</v>
+        <v>102.2232214495052</v>
       </c>
       <c r="I192">
-        <v>20.58974258278704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -5977,28 +5977,28 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>41.03765755950998</v>
+        <v>23.04073208415513</v>
       </c>
       <c r="C193">
-        <v>3701.502148231516</v>
+        <v>3718.397297208379</v>
       </c>
       <c r="D193">
-        <v>7.736970485744962</v>
+        <v>3.197810224606338</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>79.18248936535019</v>
       </c>
       <c r="F193">
-        <v>3701.502148231516</v>
+        <v>3797.579786573729</v>
       </c>
       <c r="G193">
-        <v>3709.239118717262</v>
+        <v>3800.777596798335</v>
       </c>
       <c r="H193">
-        <v>7.736970485745132</v>
+        <v>82.38029958995639</v>
       </c>
       <c r="I193">
-        <v>32.54116014325291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6006,25 +6006,25 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>5.02993306478564</v>
+        <v>7.225132993366264</v>
       </c>
       <c r="C194">
-        <v>3706.532081296302</v>
+        <v>3725.622430201745</v>
       </c>
       <c r="D194">
-        <v>7.2874342565896</v>
+        <v>20.49430298268368</v>
       </c>
       <c r="E194">
-        <v>2.707037420959296</v>
+        <v>75.15516659659033</v>
       </c>
       <c r="F194">
-        <v>3709.239118717262</v>
+        <v>3800.777596798335</v>
       </c>
       <c r="G194">
-        <v>3716.526552973851</v>
+        <v>3821.271899781019</v>
       </c>
       <c r="H194">
-        <v>9.994471677548972</v>
+        <v>95.64946957927395</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -6035,28 +6035,28 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>25.08942418192347</v>
+        <v>20.70258129364438</v>
       </c>
       <c r="C195">
-        <v>3731.621505478226</v>
+        <v>3746.325011495389</v>
       </c>
       <c r="D195">
-        <v>1.182742648683981</v>
+        <v>1.867824587768752</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>74.94688828562948</v>
       </c>
       <c r="F195">
-        <v>3731.621505478226</v>
+        <v>3821.271899781019</v>
       </c>
       <c r="G195">
-        <v>3732.804248126909</v>
+        <v>3823.139724368787</v>
       </c>
       <c r="H195">
-        <v>1.18274264868387</v>
+        <v>76.81471287339809</v>
       </c>
       <c r="I195">
-        <v>15.09495250437431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6064,28 +6064,28 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>27.62202579264792</v>
+        <v>6.845712375907079</v>
       </c>
       <c r="C196">
-        <v>3759.243531270874</v>
+        <v>3753.170723871297</v>
       </c>
       <c r="D196">
-        <v>5.203206817490997</v>
+        <v>12.82022693154365</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>69.96900049749092</v>
       </c>
       <c r="F196">
-        <v>3759.243531270874</v>
+        <v>3823.139724368787</v>
       </c>
       <c r="G196">
-        <v>3764.446738088364</v>
+        <v>3835.959951300331</v>
       </c>
       <c r="H196">
-        <v>5.203206817490809</v>
+        <v>82.78922742903478</v>
       </c>
       <c r="I196">
-        <v>26.43928314396408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6093,28 +6093,28 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>17.10978153853222</v>
+        <v>1.593610561601003</v>
       </c>
       <c r="C197">
-        <v>3776.353312809406</v>
+        <v>3754.764334432898</v>
       </c>
       <c r="D197">
-        <v>4.914164507143661</v>
+        <v>0.288966897001793</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>81.19561686743373</v>
       </c>
       <c r="F197">
-        <v>3776.353312809406</v>
+        <v>3835.959951300331</v>
       </c>
       <c r="G197">
-        <v>3781.26747731655</v>
+        <v>3836.248918197333</v>
       </c>
       <c r="H197">
-        <v>4.914164507143596</v>
+        <v>81.48458376443568</v>
       </c>
       <c r="I197">
-        <v>11.90657472104158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6122,28 +6122,28 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>8.244412620876961</v>
+        <v>16.28527798010247</v>
       </c>
       <c r="C198">
-        <v>3784.597725430283</v>
+        <v>3771.049612413</v>
       </c>
       <c r="D198">
-        <v>22.00026166853742</v>
+        <v>3.939967430918123</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>65.19930578433332</v>
       </c>
       <c r="F198">
-        <v>3784.597725430283</v>
+        <v>3836.248918197333</v>
       </c>
       <c r="G198">
-        <v>3806.59798709882</v>
+        <v>3840.188885628251</v>
       </c>
       <c r="H198">
-        <v>22.00026166853741</v>
+        <v>69.13927321525125</v>
       </c>
       <c r="I198">
-        <v>3.330248113733433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6151,25 +6151,25 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>16.15005141221453</v>
+        <v>59.93885923651852</v>
       </c>
       <c r="C199">
-        <v>3800.747776842497</v>
+        <v>3830.988471649518</v>
       </c>
       <c r="D199">
-        <v>14.25287544987896</v>
+        <v>8.241200805125318</v>
       </c>
       <c r="E199">
-        <v>5.850210256322953</v>
+        <v>9.20041397873274</v>
       </c>
       <c r="F199">
-        <v>3806.59798709882</v>
+        <v>3840.188885628251</v>
       </c>
       <c r="G199">
-        <v>3820.850862548699</v>
+        <v>3848.430086433376</v>
       </c>
       <c r="H199">
-        <v>20.10308570620191</v>
+        <v>17.44161478385786</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -6180,28 +6180,28 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.003705961973290735</v>
+        <v>20.92956920064186</v>
       </c>
       <c r="C200">
-        <v>3800.75148280447</v>
+        <v>3851.91804085016</v>
       </c>
       <c r="D200">
-        <v>5.930290680443243</v>
+        <v>3.690502064145229</v>
       </c>
       <c r="E200">
-        <v>20.09937974422883</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>3820.850862548699</v>
+        <v>3851.91804085016</v>
       </c>
       <c r="G200">
-        <v>3826.781153229143</v>
+        <v>3855.608542914305</v>
       </c>
       <c r="H200">
-        <v>26.02967042467208</v>
+        <v>3.690502064145221</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>3.48795441678385</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6209,28 +6209,28 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>24.96639356183166</v>
+        <v>11.80857928364158</v>
       </c>
       <c r="C201">
-        <v>3825.717876366302</v>
+        <v>3863.726620133802</v>
       </c>
       <c r="D201">
-        <v>7.794636660646044</v>
+        <v>0.3924395344353659</v>
       </c>
       <c r="E201">
-        <v>1.063276862840212</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>3826.781153229143</v>
+        <v>3863.726620133802</v>
       </c>
       <c r="G201">
-        <v>3834.575789889789</v>
+        <v>3864.119059668237</v>
       </c>
       <c r="H201">
-        <v>8.857913523486332</v>
+        <v>0.3924395344351979</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>8.118077219496172</v>
       </c>
     </row>
   </sheetData>
